--- a/Asset Allocation/backtest_jinqu_weight.xlsx
+++ b/Asset Allocation/backtest_jinqu_weight.xlsx
@@ -426,22 +426,22 @@
         <v>39836</v>
       </c>
       <c r="B2">
-        <v>0.9629638746952164</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C2">
-        <v>0.005899264812445165</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F2">
-        <v>0.008110401367383622</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
-        <v>0.02302645912495483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>39871</v>
       </c>
       <c r="B3">
-        <v>0.4870646129773867</v>
+        <v>0.86</v>
       </c>
       <c r="C3">
-        <v>0.009330551029309249</v>
+        <v>0.08</v>
       </c>
       <c r="D3">
-        <v>3.551659678992044e-18</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.001594319933026341</v>
+        <v>0.05</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
-        <v>0.0149459030828909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>39903</v>
       </c>
       <c r="B4">
-        <v>0.4870121777666737</v>
+        <v>0.86</v>
       </c>
       <c r="C4">
-        <v>0.009427421435073347</v>
+        <v>0.08</v>
       </c>
       <c r="D4">
-        <v>5.968841169488512e-19</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007959875166459415</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G4">
-        <v>0.01495624799828738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>39933</v>
       </c>
       <c r="B5">
-        <v>0.9715597604738235</v>
+        <v>0.83</v>
       </c>
       <c r="C5">
-        <v>2.60992379372588e-18</v>
+        <v>0.09</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.003560684736484848</v>
+        <v>0.06</v>
       </c>
       <c r="F5">
-        <v>0.003453919132052721</v>
+        <v>0.02</v>
       </c>
       <c r="G5">
-        <v>0.01441103178910127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>39960</v>
       </c>
       <c r="B6">
-        <v>0.9691223971118443</v>
+        <v>0.79</v>
       </c>
       <c r="C6">
-        <v>0.01078938874355589</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
-        <v>9.218416598203475e-18</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001254602921222678</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G6">
-        <v>0.0175790083021544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.9604536238520108</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>0.01170250141095416</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.003425015573325409</v>
+        <v>0.1</v>
       </c>
       <c r="F7">
-        <v>1.964394704845814e-18</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
-        <v>0.02099384359038423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>40025</v>
       </c>
       <c r="B8">
-        <v>0.9641599812417122</v>
+        <v>0.73</v>
       </c>
       <c r="C8">
-        <v>0.01151249529438482</v>
+        <v>0.14</v>
       </c>
       <c r="D8">
-        <v>3.250721584440981e-17</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.002818429479709484</v>
+        <v>0.11</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G8">
-        <v>0.01869066450448396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>40056</v>
       </c>
       <c r="B9">
-        <v>0.4854913336417803</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>0.001464214144770086</v>
+        <v>0.14</v>
       </c>
       <c r="D9">
-        <v>2.441652520768672e-18</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.004284255093850588</v>
+        <v>0.11</v>
       </c>
       <c r="F9">
-        <v>0.001341511982783303</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
-        <v>0.01630158441840159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,22 +610,22 @@
         <v>40086</v>
       </c>
       <c r="B10">
-        <v>0.9686000043327607</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.004233163369369661</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G10">
-        <v>0.0174670411920993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,22 +633,22 @@
         <v>40116</v>
       </c>
       <c r="B11">
-        <v>0.9701117222787611</v>
+        <v>0.66</v>
       </c>
       <c r="C11">
-        <v>0.002680308854843667</v>
+        <v>0.17</v>
       </c>
       <c r="D11">
-        <v>8.70590231645279e-19</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
-        <v>0.008875427242661754</v>
+        <v>0.13</v>
       </c>
       <c r="F11">
-        <v>2.731984710021867e-19</v>
+        <v>0.03</v>
       </c>
       <c r="G11">
-        <v>0.01565223276888978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>40147</v>
       </c>
       <c r="B12">
-        <v>0.9712563576608717</v>
+        <v>0.64</v>
       </c>
       <c r="C12">
-        <v>0.004183097797249302</v>
+        <v>0.17</v>
       </c>
       <c r="D12">
-        <v>8.023144012577013e-19</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.01076303983123932</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G12">
-        <v>0.01379750471063964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,22 +679,22 @@
         <v>40178</v>
       </c>
       <c r="B13">
-        <v>0.9664846781410114</v>
+        <v>0.52</v>
       </c>
       <c r="C13">
-        <v>0.005193294070810065</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>3.395236045262615e-18</v>
+        <v>0.05</v>
       </c>
       <c r="E13">
-        <v>0.008781209370793751</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.006134391723866992</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
-        <v>0.01340642669351782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,22 +702,22 @@
         <v>40207</v>
       </c>
       <c r="B14">
-        <v>0.9642596126182958</v>
+        <v>0.54</v>
       </c>
       <c r="C14">
-        <v>0.004158962357747129</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E14">
-        <v>0.01053738651039386</v>
+        <v>0.19</v>
       </c>
       <c r="F14">
-        <v>0.005603545735113281</v>
+        <v>0.03</v>
       </c>
       <c r="G14">
-        <v>0.01544049277844989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,22 +725,22 @@
         <v>40235</v>
       </c>
       <c r="B15">
-        <v>0.9625579446722747</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="D15">
-        <v>0.004362604054893711</v>
+        <v>0.04</v>
       </c>
       <c r="E15">
-        <v>0.006128642634117868</v>
+        <v>0.16</v>
       </c>
       <c r="F15">
-        <v>0.004195062763573125</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
-        <v>0.01662710324102266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,22 +748,22 @@
         <v>40268</v>
       </c>
       <c r="B16">
-        <v>0.9538662002035145</v>
+        <v>0.55</v>
       </c>
       <c r="C16">
-        <v>0.0009721011053956832</v>
+        <v>0.19</v>
       </c>
       <c r="D16">
-        <v>0.004614570260078168</v>
+        <v>0.04</v>
       </c>
       <c r="E16">
-        <v>0.01505480606920351</v>
+        <v>0.19</v>
       </c>
       <c r="F16">
-        <v>0.005711916586556546</v>
+        <v>0.03</v>
       </c>
       <c r="G16">
-        <v>0.01880830466985583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,22 +771,22 @@
         <v>40298</v>
       </c>
       <c r="B17">
-        <v>0.9481981732088562</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>0.00209655211975481</v>
+        <v>0.21</v>
       </c>
       <c r="D17">
-        <v>0.005651118770449259</v>
+        <v>0.04</v>
       </c>
       <c r="E17">
-        <v>0.01520518316148215</v>
+        <v>0.22</v>
       </c>
       <c r="F17">
-        <v>0.008363431373060209</v>
+        <v>0.03</v>
       </c>
       <c r="G17">
-        <v>0.02048554136639737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,22 +794,22 @@
         <v>40329</v>
       </c>
       <c r="B18">
-        <v>0.94185718559644</v>
+        <v>0.79</v>
       </c>
       <c r="C18">
-        <v>0.005110850072690863</v>
+        <v>0.09</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
-        <v>0.02245276163206235</v>
+        <v>0.01</v>
       </c>
       <c r="G18">
-        <v>0.02546835262611583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,22 +817,22 @@
         <v>40359</v>
       </c>
       <c r="B19">
-        <v>0.9358222605352431</v>
+        <v>0.79</v>
       </c>
       <c r="C19">
-        <v>0.001705658077242093</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.002874576824042023</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>0.01630923987301198</v>
+        <v>0.08</v>
       </c>
       <c r="F19">
-        <v>0.004177639987893971</v>
+        <v>0.02</v>
       </c>
       <c r="G19">
-        <v>0.03035274981338881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,22 +840,22 @@
         <v>40389</v>
       </c>
       <c r="B20">
-        <v>0.933233821945419</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>0.007425733878211507</v>
+        <v>0.09</v>
       </c>
       <c r="D20">
-        <v>3.545953789524276e-18</v>
+        <v>0.01</v>
       </c>
       <c r="E20">
-        <v>4.784181331731995e-18</v>
+        <v>0.08</v>
       </c>
       <c r="F20">
-        <v>0.01076818839624741</v>
+        <v>0.02</v>
       </c>
       <c r="G20">
-        <v>0.03037833350566306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,22 +863,22 @@
         <v>40421</v>
       </c>
       <c r="B21">
-        <v>0.928914169659503</v>
+        <v>0.78</v>
       </c>
       <c r="C21">
-        <v>0.01240631199872644</v>
+        <v>0.11</v>
       </c>
       <c r="D21">
-        <v>0.0006903866992734174</v>
+        <v>0.01</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F21">
-        <v>0.02188375795908602</v>
+        <v>0.02</v>
       </c>
       <c r="G21">
-        <v>0.03610537368341108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,22 +886,22 @@
         <v>40451</v>
       </c>
       <c r="B22">
-        <v>0.9236771495293139</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>0.01694610421437633</v>
+        <v>0.13</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E22">
-        <v>3.746793465170083e-18</v>
+        <v>0.09</v>
       </c>
       <c r="F22">
-        <v>0.01968613824155149</v>
+        <v>0.02</v>
       </c>
       <c r="G22">
-        <v>0.0396906080147583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,22 +909,22 @@
         <v>40480</v>
       </c>
       <c r="B23">
-        <v>0.9204446226107417</v>
+        <v>0.7</v>
       </c>
       <c r="C23">
-        <v>0.015120965938229</v>
+        <v>0.15</v>
       </c>
       <c r="D23">
-        <v>9.673892335325302e-18</v>
+        <v>0.01</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F23">
-        <v>0.02840926065023027</v>
+        <v>0.02</v>
       </c>
       <c r="G23">
-        <v>0.03602515080079906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,22 +932,22 @@
         <v>40512</v>
       </c>
       <c r="B24">
-        <v>0.4632291105404401</v>
+        <v>0.7</v>
       </c>
       <c r="C24">
-        <v>0.006217526389543778</v>
+        <v>0.15</v>
       </c>
       <c r="D24">
-        <v>0.009833063439141872</v>
+        <v>0.02</v>
       </c>
       <c r="E24">
-        <v>3.648612056695977e-17</v>
+        <v>0.12</v>
       </c>
       <c r="F24">
-        <v>0.02381419164598519</v>
+        <v>0.02</v>
       </c>
       <c r="G24">
-        <v>0.03367699744444892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,22 +955,22 @@
         <v>40543</v>
       </c>
       <c r="B25">
-        <v>0.4679003453691133</v>
+        <v>0.76</v>
       </c>
       <c r="C25">
-        <v>0.01185015459093263</v>
+        <v>0.12</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E25">
-        <v>0.008893754979913454</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
-        <v>0.008292400214510985</v>
+        <v>0.01</v>
       </c>
       <c r="G25">
-        <v>0.03516299947641634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,22 +978,22 @@
         <v>40574</v>
       </c>
       <c r="B26">
-        <v>0.930779716573624</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>0.01215320033846662</v>
+        <v>0.14</v>
       </c>
       <c r="D26">
-        <v>4.02933661300277e-18</v>
+        <v>0.02</v>
       </c>
       <c r="E26">
-        <v>3.322825697946816e-18</v>
+        <v>0.13</v>
       </c>
       <c r="F26">
-        <v>0.02328900649293333</v>
+        <v>0.01</v>
       </c>
       <c r="G26">
-        <v>0.03377807659497608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>40602</v>
       </c>
       <c r="B27">
-        <v>0.9336891665368711</v>
+        <v>0.72</v>
       </c>
       <c r="C27">
-        <v>0.005809814765765639</v>
+        <v>0.13</v>
       </c>
       <c r="D27">
-        <v>4.165097287585278e-19</v>
+        <v>0.02</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F27">
-        <v>0.019636489449068</v>
+        <v>0.01</v>
       </c>
       <c r="G27">
-        <v>0.03505471448252966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>40633</v>
       </c>
       <c r="B28">
-        <v>0.9333334066145101</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>0.004922517713718627</v>
+        <v>0.15</v>
       </c>
       <c r="D28">
-        <v>0.003596828986904567</v>
+        <v>0.02</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>0.01655869490505274</v>
+        <v>0.01</v>
       </c>
       <c r="G28">
-        <v>0.03306920507919076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>40662</v>
       </c>
       <c r="B29">
-        <v>0.9266493270279761</v>
+        <v>0.67</v>
       </c>
       <c r="C29">
-        <v>0.006587292896673482</v>
+        <v>0.16</v>
       </c>
       <c r="D29">
-        <v>1.492494383822391e-18</v>
+        <v>0.02</v>
       </c>
       <c r="E29">
-        <v>2.016816025235813e-17</v>
+        <v>0.13</v>
       </c>
       <c r="F29">
-        <v>0.02185078924362995</v>
+        <v>0.01</v>
       </c>
       <c r="G29">
-        <v>0.03832529793504699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>40694</v>
       </c>
       <c r="B30">
-        <v>0.9200269985451738</v>
+        <v>0.61</v>
       </c>
       <c r="C30">
-        <v>1.75493407815623e-18</v>
+        <v>0.19</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E30">
-        <v>0.01818490807985881</v>
+        <v>0.16</v>
       </c>
       <c r="F30">
-        <v>0.02453320744375269</v>
+        <v>0.02</v>
       </c>
       <c r="G30">
-        <v>0.03725488593121469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>40724</v>
       </c>
       <c r="B31">
-        <v>0.9121147858786071</v>
+        <v>0.59</v>
       </c>
       <c r="C31">
-        <v>0.008471820099878831</v>
+        <v>0.18</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F31">
-        <v>0.02905346128146037</v>
+        <v>0.02</v>
       </c>
       <c r="G31">
-        <v>0.04188811264017493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>40753</v>
       </c>
       <c r="B32">
-        <v>0.9162377882677779</v>
+        <v>0.63</v>
       </c>
       <c r="C32">
-        <v>0.001600964047233064</v>
+        <v>0.17</v>
       </c>
       <c r="D32">
-        <v>0.006426936078720279</v>
+        <v>0.02</v>
       </c>
       <c r="E32">
-        <v>0.01984516306941409</v>
+        <v>0.16</v>
       </c>
       <c r="F32">
-        <v>0.01415057760951476</v>
+        <v>0.02</v>
       </c>
       <c r="G32">
-        <v>0.03371067080138653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>40786</v>
       </c>
       <c r="B33">
-        <v>0.4610110246075178</v>
+        <v>0.63</v>
       </c>
       <c r="C33">
-        <v>0.005239500225076112</v>
+        <v>0.18</v>
       </c>
       <c r="D33">
-        <v>5.485743140389267e-19</v>
+        <v>0.02</v>
       </c>
       <c r="E33">
-        <v>0.01565208546734326</v>
+        <v>0.16</v>
       </c>
       <c r="F33">
-        <v>0.0164666586751578</v>
+        <v>0.02</v>
       </c>
       <c r="G33">
-        <v>0.03538020619231106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>40816</v>
       </c>
       <c r="B34">
-        <v>0.4603346750474945</v>
+        <v>0.59</v>
       </c>
       <c r="C34">
-        <v>0.009354979207004729</v>
+        <v>0.19</v>
       </c>
       <c r="D34">
-        <v>6.955081416028753e-18</v>
+        <v>0.03</v>
       </c>
       <c r="E34">
-        <v>0.006278923976587683</v>
+        <v>0.17</v>
       </c>
       <c r="F34">
-        <v>0.009213598994638084</v>
+        <v>0.02</v>
       </c>
       <c r="G34">
-        <v>0.02963564554855005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,22 +1185,22 @@
         <v>40847</v>
       </c>
       <c r="B35">
-        <v>0.9211294506387286</v>
+        <v>0.71</v>
       </c>
       <c r="C35">
-        <v>0.0125280370729306</v>
+        <v>0.14</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E35">
-        <v>1.765935357130417e-17</v>
+        <v>0.12</v>
       </c>
       <c r="F35">
-        <v>0.006811359990015638</v>
+        <v>0.02</v>
       </c>
       <c r="G35">
-        <v>0.02009587761768942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>40877</v>
       </c>
       <c r="B36">
-        <v>0.905464079861499</v>
+        <v>0.59</v>
       </c>
       <c r="C36">
-        <v>0.002979562414340339</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>0.01105392978787352</v>
+        <v>0.01</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F36">
-        <v>0.02637871105407103</v>
+        <v>0.03</v>
       </c>
       <c r="G36">
-        <v>0.04009022468000228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>40907</v>
       </c>
       <c r="B37">
-        <v>0.8941456026993133</v>
+        <v>0.57</v>
       </c>
       <c r="C37">
-        <v>0.006106018846767967</v>
+        <v>0.21</v>
       </c>
       <c r="D37">
-        <v>0.007067492566968021</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>9.582475273678392e-18</v>
+        <v>0.19</v>
       </c>
       <c r="F37">
-        <v>0.04039926077522883</v>
+        <v>0.04</v>
       </c>
       <c r="G37">
-        <v>0.03910811369798592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>40939</v>
       </c>
       <c r="B38">
-        <v>0.8709350127931408</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>0.01847631644811297</v>
+        <v>0.19</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E38">
-        <v>0.006891567417699996</v>
+        <v>0.16</v>
       </c>
       <c r="F38">
-        <v>0.02740276055285067</v>
+        <v>0.04</v>
       </c>
       <c r="G38">
-        <v>0.02546322946119128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>40968</v>
       </c>
       <c r="B39">
-        <v>0.8602725582960866</v>
+        <v>0.82</v>
       </c>
       <c r="C39">
-        <v>0.03825196624705776</v>
+        <v>0.08</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.009554264521636099</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F39">
-        <v>0.03234419328122402</v>
+        <v>0.02</v>
       </c>
       <c r="G39">
-        <v>0.05002275313235947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,22 +1300,22 @@
         <v>40998</v>
       </c>
       <c r="B40">
-        <v>0.8586797081601835</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C40">
-        <v>0.02746374905266293</v>
+        <v>0.08</v>
       </c>
       <c r="D40">
-        <v>0.01335842305899734</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
-        <v>0.05434156190035348</v>
+        <v>0.02</v>
       </c>
       <c r="G40">
-        <v>0.04615655782780276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,22 +1323,22 @@
         <v>41026</v>
       </c>
       <c r="B41">
-        <v>0.8585685706596577</v>
+        <v>0.82</v>
       </c>
       <c r="C41">
-        <v>3.265670933252286e-19</v>
+        <v>0.08</v>
       </c>
       <c r="D41">
-        <v>0.01048243355530805</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.01349943495767454</v>
+        <v>0.08</v>
       </c>
       <c r="F41">
-        <v>0.03044997375493775</v>
+        <v>0.02</v>
       </c>
       <c r="G41">
-        <v>0.07350015211474742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,22 +1346,22 @@
         <v>41060</v>
       </c>
       <c r="B42">
-        <v>0.8570122408314101</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C42">
-        <v>0.03572946461790596</v>
+        <v>0.08</v>
       </c>
       <c r="D42">
-        <v>3.418163050292391e-17</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.01288400136945598</v>
+        <v>0.08</v>
       </c>
       <c r="F42">
-        <v>0.0308878368535744</v>
+        <v>0.02</v>
       </c>
       <c r="G42">
-        <v>0.05060245495819749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,22 +1369,22 @@
         <v>41089</v>
       </c>
       <c r="B43">
-        <v>0.8444947653179873</v>
+        <v>0.76</v>
       </c>
       <c r="C43">
-        <v>0.03991442628126497</v>
+        <v>0.11</v>
       </c>
       <c r="D43">
-        <v>1.185310692740386e-17</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.01259352779041393</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>0.03623013625970228</v>
+        <v>0.03</v>
       </c>
       <c r="G43">
-        <v>0.02708680828010877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,22 +1392,22 @@
         <v>41121</v>
       </c>
       <c r="B44">
-        <v>0.8398725033073933</v>
+        <v>0.73</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D44">
-        <v>5.393603797021879e-17</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.03198523730479067</v>
+        <v>0.12</v>
       </c>
       <c r="F44">
-        <v>0.04518652677771092</v>
+        <v>0.03</v>
       </c>
       <c r="G44">
-        <v>0.02548524765265724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,22 +1415,22 @@
         <v>41152</v>
       </c>
       <c r="B45">
-        <v>0.8346568718384005</v>
+        <v>0.7</v>
       </c>
       <c r="C45">
-        <v>0.02458697160006725</v>
+        <v>0.12</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F45">
-        <v>0.06047047955329273</v>
+        <v>0.04</v>
       </c>
       <c r="G45">
-        <v>0.02784935270408611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,22 +1438,22 @@
         <v>41180</v>
       </c>
       <c r="B46">
-        <v>0.8389530873559502</v>
+        <v>0.71</v>
       </c>
       <c r="C46">
-        <v>0.02423231680200682</v>
+        <v>0.11</v>
       </c>
       <c r="D46">
-        <v>0.004487335939428738</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F46">
-        <v>0.06076715830135692</v>
+        <v>0.04</v>
       </c>
       <c r="G46">
-        <v>0.0214202244299109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,22 +1461,22 @@
         <v>41213</v>
       </c>
       <c r="B47">
-        <v>0.8363291959375004</v>
+        <v>0.67</v>
       </c>
       <c r="C47">
-        <v>0.04554795979453632</v>
+        <v>0.12</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.02523188408504139</v>
+        <v>0.15</v>
       </c>
       <c r="F47">
-        <v>0.0299211855716522</v>
+        <v>0.05</v>
       </c>
       <c r="G47">
-        <v>0.01886894526311411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,22 +1484,22 @@
         <v>41243</v>
       </c>
       <c r="B48">
-        <v>0.8362898217832114</v>
+        <v>0.7</v>
       </c>
       <c r="C48">
-        <v>0.06044824495490156</v>
+        <v>0.12</v>
       </c>
       <c r="D48">
-        <v>2.571604803570752e-17</v>
+        <v>0.01</v>
       </c>
       <c r="E48">
-        <v>0.03881706909634506</v>
+        <v>0.12</v>
       </c>
       <c r="F48">
-        <v>0.02103414744235637</v>
+        <v>0.05</v>
       </c>
       <c r="G48">
-        <v>0.02170535836159277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,22 +1507,22 @@
         <v>41274</v>
       </c>
       <c r="B49">
-        <v>0.8358338336867712</v>
+        <v>0.7</v>
       </c>
       <c r="C49">
-        <v>0.05255019716017074</v>
+        <v>0.11</v>
       </c>
       <c r="D49">
-        <v>1.554728430456693e-17</v>
+        <v>0.02</v>
       </c>
       <c r="E49">
-        <v>0.04095919221223133</v>
+        <v>0.12</v>
       </c>
       <c r="F49">
-        <v>0.02993340686228099</v>
+        <v>0.05</v>
       </c>
       <c r="G49">
-        <v>0.02036168503927284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>41305</v>
       </c>
       <c r="B50">
-        <v>0.8099132391938457</v>
+        <v>0.66</v>
       </c>
       <c r="C50">
-        <v>0.07172591951163224</v>
+        <v>0.13</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F50">
-        <v>0.0585653120069585</v>
+        <v>0.05</v>
       </c>
       <c r="G50">
-        <v>0.02989776464378177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,22 +1553,22 @@
         <v>41333</v>
       </c>
       <c r="B51">
-        <v>0.8011781735227231</v>
+        <v>0.61</v>
       </c>
       <c r="C51">
-        <v>0.0549277709679325</v>
+        <v>0.15</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F51">
-        <v>0.08158973147906039</v>
+        <v>0.05</v>
       </c>
       <c r="G51">
-        <v>0.03115216201514198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>41362</v>
       </c>
       <c r="B52">
-        <v>0.8000600508732529</v>
+        <v>0.62</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D52">
-        <v>0.05459429874842823</v>
+        <v>0.01</v>
       </c>
       <c r="E52">
-        <v>0.05482269070378561</v>
+        <v>0.16</v>
       </c>
       <c r="F52">
-        <v>0.04294694945312696</v>
+        <v>0.05</v>
       </c>
       <c r="G52">
-        <v>0.0237880051107031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>41390</v>
       </c>
       <c r="B53">
-        <v>0.8002544921428667</v>
+        <v>0.62</v>
       </c>
       <c r="C53">
-        <v>0.005857513632279565</v>
+        <v>0.11</v>
       </c>
       <c r="D53">
-        <v>0.008890140870364363</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.05223434642714301</v>
+        <v>0.12</v>
       </c>
       <c r="F53">
-        <v>0.06808057443131205</v>
+        <v>0.15</v>
       </c>
       <c r="G53">
-        <v>0.03234146624801711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>41425</v>
       </c>
       <c r="B54">
-        <v>0.7945273730650804</v>
+        <v>0.62</v>
       </c>
       <c r="C54">
-        <v>0.009206686207549448</v>
+        <v>0.11</v>
       </c>
       <c r="D54">
-        <v>0.02750794380812109</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.0309469309249429</v>
+        <v>0.13</v>
       </c>
       <c r="F54">
-        <v>0.06996401841726703</v>
+        <v>0.14</v>
       </c>
       <c r="G54">
-        <v>0.02932018068474485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>41453</v>
       </c>
       <c r="B55">
-        <v>0.7872884912987443</v>
+        <v>0.59</v>
       </c>
       <c r="C55">
-        <v>0.01081618571162111</v>
+        <v>0.06</v>
       </c>
       <c r="D55">
-        <v>0.02664704985283389</v>
+        <v>0.23</v>
       </c>
       <c r="E55">
-        <v>0.04369727675376325</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.06462792223748143</v>
+        <v>0.12</v>
       </c>
       <c r="G55">
-        <v>0.02805344421696746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>41486</v>
       </c>
       <c r="B56">
-        <v>0.8001766118617006</v>
+        <v>0.76</v>
       </c>
       <c r="C56">
-        <v>0.01646753911995194</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D56">
-        <v>0.0002674628388060943</v>
+        <v>0.01</v>
       </c>
       <c r="E56">
-        <v>0.02526690591225874</v>
+        <v>0.06</v>
       </c>
       <c r="F56">
-        <v>0.03921676501515514</v>
+        <v>0.11</v>
       </c>
       <c r="G56">
-        <v>0.03830140369055536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>41516</v>
       </c>
       <c r="B57">
-        <v>0.7977394692511901</v>
+        <v>0.74</v>
       </c>
       <c r="C57">
-        <v>0.0230328115802105</v>
+        <v>0.01</v>
       </c>
       <c r="D57">
-        <v>1.293712589866342e-18</v>
+        <v>0.15</v>
       </c>
       <c r="E57">
-        <v>0.04956807680641449</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.0405358626254583</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.06609096815651606</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,22 +1714,22 @@
         <v>41547</v>
       </c>
       <c r="B58">
-        <v>0.4012283302734991</v>
+        <v>0.74</v>
       </c>
       <c r="C58">
-        <v>0.01749047077448454</v>
+        <v>0.06</v>
       </c>
       <c r="D58">
-        <v>0.01143167759863681</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E58">
-        <v>0.04417099375075879</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>0.04845341851270668</v>
+        <v>0.08</v>
       </c>
       <c r="G58">
-        <v>0.07599677881641496</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,22 +1737,22 @@
         <v>41578</v>
       </c>
       <c r="B59">
-        <v>0.8063703262063627</v>
+        <v>0.75</v>
       </c>
       <c r="C59">
-        <v>0.02901466225328507</v>
+        <v>0.04</v>
       </c>
       <c r="D59">
-        <v>0.03757063916021779</v>
+        <v>0.13</v>
       </c>
       <c r="E59">
-        <v>2.833760980052825e-18</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.08281559184358059</v>
+        <v>0.09</v>
       </c>
       <c r="G59">
-        <v>0.04422878053655383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,22 +1760,22 @@
         <v>41607</v>
       </c>
       <c r="B60">
-        <v>0.8169697761074015</v>
+        <v>0.8</v>
       </c>
       <c r="C60">
-        <v>0.02896043830648386</v>
+        <v>0.04</v>
       </c>
       <c r="D60">
-        <v>1.359152106334871e-18</v>
+        <v>0.08</v>
       </c>
       <c r="E60">
-        <v>0.06503536283084251</v>
+        <v>0.02</v>
       </c>
       <c r="F60">
-        <v>0.0533117443784813</v>
+        <v>0.05</v>
       </c>
       <c r="G60">
-        <v>0.03572267837679088</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1783,22 +1783,22 @@
         <v>41639</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C61">
-        <v>0.03323161604338889</v>
+        <v>0.02</v>
       </c>
       <c r="D61">
-        <v>7.413881252478022e-19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E61">
-        <v>2.285353177346828e-17</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.0887682938832247</v>
+        <v>0.01</v>
       </c>
       <c r="G61">
-        <v>0.02461239130223415</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1806,22 +1806,22 @@
         <v>41669</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C62">
-        <v>0.04741374363351476</v>
+        <v>0.02</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>0.0857776329858384</v>
+        <v>0.05</v>
       </c>
       <c r="G62">
-        <v>0.02198942869557299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>41698</v>
       </c>
       <c r="B63">
-        <v>0.4107977745690909</v>
+        <v>0.86</v>
       </c>
       <c r="C63">
-        <v>0.01723834125151388</v>
+        <v>0.04</v>
       </c>
       <c r="D63">
-        <v>2.000167883570521e-19</v>
+        <v>0.01</v>
       </c>
       <c r="E63">
-        <v>0.02451645272590352</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>0.06175946192949636</v>
+        <v>0.06</v>
       </c>
       <c r="G63">
-        <v>0.05765185370339057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,22 +1852,22 @@
         <v>41729</v>
       </c>
       <c r="B64">
-        <v>0.8061164330587343</v>
+        <v>0.78</v>
       </c>
       <c r="C64">
-        <v>6.670289894890446e-19</v>
+        <v>0.03</v>
       </c>
       <c r="D64">
-        <v>0.03656195936741368</v>
+        <v>0.08</v>
       </c>
       <c r="E64">
-        <v>0.04772376651666326</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.06202990528410712</v>
+        <v>0.11</v>
       </c>
       <c r="G64">
-        <v>0.04756793577308162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,22 +1875,22 @@
         <v>41759</v>
       </c>
       <c r="B65">
-        <v>0.8075117347030518</v>
+        <v>0.8</v>
       </c>
       <c r="C65">
-        <v>0.003777003342276549</v>
+        <v>0.03</v>
       </c>
       <c r="D65">
-        <v>0.03431988031454663</v>
+        <v>0.08</v>
       </c>
       <c r="E65">
-        <v>0.04946976792382012</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.05841524812945172</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G65">
-        <v>0.04272936224457663</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,22 +1898,22 @@
         <v>41789</v>
       </c>
       <c r="B66">
-        <v>0.799263549384205</v>
+        <v>0.76</v>
       </c>
       <c r="C66">
-        <v>0.03649379074613761</v>
+        <v>0.02</v>
       </c>
       <c r="D66">
-        <v>1.896004435566267e-18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66">
-        <v>0.03551883050634555</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.07110585837446473</v>
+        <v>0.14</v>
       </c>
       <c r="G66">
-        <v>0.05761797098884711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>41820</v>
       </c>
       <c r="B67">
-        <v>0.7893755595291514</v>
+        <v>0.71</v>
       </c>
       <c r="C67">
-        <v>2.297795545827286e-17</v>
+        <v>0.04</v>
       </c>
       <c r="D67">
-        <v>0.05773860033864613</v>
+        <v>0.11</v>
       </c>
       <c r="E67">
-        <v>0.05221277303116202</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.06502903158165273</v>
+        <v>0.14</v>
       </c>
       <c r="G67">
-        <v>0.03564403551938775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,22 +1944,22 @@
         <v>41851</v>
       </c>
       <c r="B68">
-        <v>0.7785823675711661</v>
+        <v>0.68</v>
       </c>
       <c r="C68">
-        <v>0.06020570847458885</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E68">
-        <v>0.02436737137947332</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.07900826505097631</v>
+        <v>0.06</v>
       </c>
       <c r="G68">
-        <v>0.05783628752379546</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,22 +1967,22 @@
         <v>41880</v>
       </c>
       <c r="B69">
-        <v>0.7746234878888721</v>
+        <v>0.59</v>
       </c>
       <c r="C69">
-        <v>0.06200229960797485</v>
+        <v>0.05</v>
       </c>
       <c r="D69">
-        <v>1.069569716714572e-17</v>
+        <v>0.17</v>
       </c>
       <c r="E69">
-        <v>0.03164578153929032</v>
+        <v>0.03</v>
       </c>
       <c r="F69">
-        <v>0.08828267330792723</v>
+        <v>0.1</v>
       </c>
       <c r="G69">
-        <v>0.04344575765593547</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,22 +1990,22 @@
         <v>41912</v>
       </c>
       <c r="B70">
-        <v>0.7667278067620094</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C70">
-        <v>0.07970497844674636</v>
+        <v>0.06</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.1039535800646433</v>
+        <v>0.11</v>
       </c>
       <c r="G70">
-        <v>0.049613634726601</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>41943</v>
       </c>
       <c r="B71">
-        <v>0.7590894021056223</v>
+        <v>0.55</v>
       </c>
       <c r="C71">
-        <v>0.07045656739825315</v>
+        <v>0.06</v>
       </c>
       <c r="D71">
-        <v>2.028883602838508e-18</v>
+        <v>0.18</v>
       </c>
       <c r="E71">
-        <v>0.01770151724316471</v>
+        <v>0.02</v>
       </c>
       <c r="F71">
-        <v>0.1038485767498091</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G71">
-        <v>0.02445196825157541</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,22 +2036,22 @@
         <v>41971</v>
       </c>
       <c r="B72">
-        <v>0.7433370434692582</v>
+        <v>0.82</v>
       </c>
       <c r="C72">
-        <v>0.09220313539479852</v>
+        <v>0.04</v>
       </c>
       <c r="D72">
-        <v>0.006399101699097146</v>
+        <v>0.06</v>
       </c>
       <c r="E72">
-        <v>0.02788564176335036</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>0.09192854521919606</v>
+        <v>0.06</v>
       </c>
       <c r="G72">
-        <v>0.01912326622714987</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,22 +2059,22 @@
         <v>42004</v>
       </c>
       <c r="B73">
-        <v>0.7217568720275227</v>
+        <v>0.72</v>
       </c>
       <c r="C73">
-        <v>9.563944285415579e-17</v>
+        <v>0.04</v>
       </c>
       <c r="D73">
-        <v>0.0913557961328494</v>
+        <v>0.1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F73">
-        <v>0.1305188998370928</v>
+        <v>0.06</v>
       </c>
       <c r="G73">
-        <v>0.05636843200253497</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,22 +2082,22 @@
         <v>42034</v>
       </c>
       <c r="B74">
-        <v>0.7079097790136593</v>
+        <v>0.67</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D74">
-        <v>0.09002356274506658</v>
+        <v>0.13</v>
       </c>
       <c r="E74">
-        <v>7.935059710507757e-18</v>
+        <v>0.01</v>
       </c>
       <c r="F74">
-        <v>0.1395833682041618</v>
+        <v>0.06</v>
       </c>
       <c r="G74">
-        <v>0.06248329003711227</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,22 +2105,22 @@
         <v>42062</v>
       </c>
       <c r="B75">
-        <v>0.6980742129772486</v>
+        <v>0.6</v>
       </c>
       <c r="C75">
-        <v>0.07662846931357575</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D75">
-        <v>2.113111270448331e-18</v>
+        <v>0.14</v>
       </c>
       <c r="E75">
-        <v>2.213388636155978e-17</v>
+        <v>0.05</v>
       </c>
       <c r="F75">
-        <v>0.1459546818665675</v>
+        <v>0.06</v>
       </c>
       <c r="G75">
-        <v>0.07934263584260817</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>42094</v>
       </c>
       <c r="B76">
-        <v>0.6887190012746017</v>
+        <v>0.55</v>
       </c>
       <c r="C76">
-        <v>0.05263595394633069</v>
+        <v>0.09</v>
       </c>
       <c r="D76">
-        <v>0.02362161735187887</v>
+        <v>0.15</v>
       </c>
       <c r="E76">
-        <v>0.0784603762913086</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F76">
-        <v>0.0997213011037049</v>
+        <v>0.06</v>
       </c>
       <c r="G76">
-        <v>0.0568417500321752</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>42124</v>
       </c>
       <c r="B77">
-        <v>0.6899814764273891</v>
+        <v>0.51</v>
       </c>
       <c r="C77">
-        <v>0.05099709728675034</v>
+        <v>0.1</v>
       </c>
       <c r="D77">
-        <v>0.004420689247884028</v>
+        <v>0.21</v>
       </c>
       <c r="E77">
-        <v>0.07943019588031382</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>0.1072936008034076</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G77">
-        <v>0.06787694035425526</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,22 +2174,22 @@
         <v>42153</v>
       </c>
       <c r="B78">
-        <v>0.6683096265144611</v>
+        <v>0.63</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D78">
-        <v>0.0472431524048544</v>
+        <v>0.16</v>
       </c>
       <c r="E78">
-        <v>2.585737870774094e-17</v>
+        <v>0.06</v>
       </c>
       <c r="F78">
-        <v>0.1739405667908161</v>
+        <v>0.06</v>
       </c>
       <c r="G78">
-        <v>0.1105066542898684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,22 +2197,22 @@
         <v>42185</v>
       </c>
       <c r="B79">
-        <v>0.6613280749885107</v>
+        <v>0.64</v>
       </c>
       <c r="C79">
-        <v>6.43674621272438e-18</v>
+        <v>0.08</v>
       </c>
       <c r="D79">
-        <v>0.0239357928338638</v>
+        <v>0.14</v>
       </c>
       <c r="E79">
-        <v>0.1362283920139168</v>
+        <v>0.06</v>
       </c>
       <c r="F79">
-        <v>0.1081803562250906</v>
+        <v>0.04</v>
       </c>
       <c r="G79">
-        <v>0.07032738393861815</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,22 +2220,22 @@
         <v>42216</v>
       </c>
       <c r="B80">
-        <v>0.6663425893746184</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C80">
-        <v>0.02823758094822185</v>
+        <v>0.08</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E80">
-        <v>0.1334708836370624</v>
+        <v>0.03</v>
       </c>
       <c r="F80">
-        <v>0.0970388846040685</v>
+        <v>0.03</v>
       </c>
       <c r="G80">
-        <v>0.07491006143602887</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,22 +2243,22 @@
         <v>42247</v>
       </c>
       <c r="B81">
-        <v>0.6701032320810331</v>
+        <v>0.74</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D81">
-        <v>0.01349512805234663</v>
+        <v>0.1</v>
       </c>
       <c r="E81">
-        <v>0.06204770111141077</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>0.09734214331559578</v>
+        <v>0.03</v>
       </c>
       <c r="G81">
-        <v>0.04073448313792816</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,22 +2266,22 @@
         <v>42277</v>
       </c>
       <c r="B82">
-        <v>0.6738759570991789</v>
+        <v>0.78</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D82">
-        <v>0.02448209145955923</v>
+        <v>0.1</v>
       </c>
       <c r="E82">
-        <v>0.02079921729442888</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.1249183834140733</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.1047803431886652</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,22 +2289,22 @@
         <v>42307</v>
       </c>
       <c r="B83">
-        <v>0.6750724962092389</v>
+        <v>0.79</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D83">
-        <v>0.1624637518953805</v>
+        <v>0.1</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>5.596331511620644e-18</v>
+        <v>0.03</v>
       </c>
       <c r="G83">
-        <v>4.50927495053101e-18</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>42338</v>
       </c>
       <c r="B84">
-        <v>0.6500312657043037</v>
+        <v>0.67</v>
       </c>
       <c r="C84">
-        <v>0.02885219202251232</v>
+        <v>0.11</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E84">
-        <v>0.03959859504426985</v>
+        <v>0.12</v>
       </c>
       <c r="F84">
-        <v>0.05839724549357015</v>
+        <v>0.1</v>
       </c>
       <c r="G84">
-        <v>0.09627266917499172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,22 +2335,22 @@
         <v>42369</v>
       </c>
       <c r="B85">
-        <v>0.6506598558972472</v>
+        <v>0.68</v>
       </c>
       <c r="C85">
-        <v>0.03936026393709015</v>
+        <v>0.08</v>
       </c>
       <c r="D85">
-        <v>8.444304243612686e-18</v>
+        <v>0.14</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.1693248174575869</v>
+        <v>0.04</v>
       </c>
       <c r="G85">
-        <v>0.1012947987709856</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,22 +2358,22 @@
         <v>42398</v>
       </c>
       <c r="B86">
-        <v>0.6276646320647276</v>
+        <v>0.62</v>
       </c>
       <c r="C86">
-        <v>0.04765703839886234</v>
+        <v>0.1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E86">
-        <v>0.05525088507165556</v>
+        <v>0.06</v>
       </c>
       <c r="F86">
-        <v>0.08679239627417516</v>
+        <v>0.09</v>
       </c>
       <c r="G86">
-        <v>0.1273841631189238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,22 +2381,22 @@
         <v>42429</v>
       </c>
       <c r="B87">
-        <v>0.6335306933068811</v>
+        <v>0.72</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E87">
-        <v>0.06581087795802883</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.08803607626668387</v>
+        <v>0.03</v>
       </c>
       <c r="G87">
-        <v>0.08538033451152038</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,22 +2404,22 @@
         <v>42460</v>
       </c>
       <c r="B88">
-        <v>0.6276699995429765</v>
+        <v>0.71</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E88">
-        <v>0.05277222880611395</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.08282490374150328</v>
+        <v>0.04</v>
       </c>
       <c r="G88">
-        <v>0.114554510802578</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,22 +2427,22 @@
         <v>42489</v>
       </c>
       <c r="B89">
-        <v>0.6200550031820186</v>
+        <v>0.61</v>
       </c>
       <c r="C89">
-        <v>0.04426502002715003</v>
+        <v>0.08</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E89">
-        <v>0.01366480942926878</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.1589621738503737</v>
+        <v>0.04</v>
       </c>
       <c r="G89">
-        <v>0.1051231640547702</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,22 +2450,22 @@
         <v>42521</v>
       </c>
       <c r="B90">
-        <v>0.6227177105206267</v>
+        <v>0.62</v>
       </c>
       <c r="C90">
-        <v>0.02245966468708809</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D90">
-        <v>8.86572831343917e-19</v>
+        <v>0.18</v>
       </c>
       <c r="E90">
-        <v>0.05979218383852716</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.136132102888551</v>
+        <v>0.04</v>
       </c>
       <c r="G90">
-        <v>0.07664648953959169</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,22 +2473,22 @@
         <v>42551</v>
       </c>
       <c r="B91">
-        <v>0.6231859502652075</v>
+        <v>0.63</v>
       </c>
       <c r="C91">
-        <v>0.05425164533985571</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D91">
-        <v>0.005067363726117785</v>
+        <v>0.17</v>
       </c>
       <c r="E91">
-        <v>0.04495850915396082</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.1088705556552289</v>
+        <v>0.04</v>
       </c>
       <c r="G91">
-        <v>0.1136401029795507</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,22 +2496,22 @@
         <v>42580</v>
       </c>
       <c r="B92">
-        <v>0.611998287888922</v>
+        <v>0.58</v>
       </c>
       <c r="C92">
-        <v>0.1094587381328669</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.183447857984231</v>
+        <v>0.05</v>
       </c>
       <c r="G92">
-        <v>0.0950951159939801</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,22 +2519,22 @@
         <v>42613</v>
       </c>
       <c r="B93">
-        <v>0.5994386383106849</v>
+        <v>0.5</v>
       </c>
       <c r="C93">
-        <v>0.1089548807159489</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.1879247562261324</v>
+        <v>0.05</v>
       </c>
       <c r="G93">
-        <v>0.1036817247472339</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,22 +2542,22 @@
         <v>42643</v>
       </c>
       <c r="B94">
-        <v>0.5940079672362313</v>
+        <v>0.76</v>
       </c>
       <c r="C94">
-        <v>0.1100468046676689</v>
+        <v>0.03</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E94">
-        <v>0.05238249861223474</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.1104804024774286</v>
+        <v>0.02</v>
       </c>
       <c r="G94">
-        <v>0.08069982839420171</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,22 +2565,22 @@
         <v>42674</v>
       </c>
       <c r="B95">
-        <v>0.5939916708957715</v>
+        <v>0.74</v>
       </c>
       <c r="C95">
-        <v>0.09325976090206922</v>
+        <v>0.03</v>
       </c>
       <c r="D95">
-        <v>1.091199684284543e-17</v>
+        <v>0.14</v>
       </c>
       <c r="E95">
-        <v>0.02574256860337425</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.1752418158011839</v>
+        <v>0.03</v>
       </c>
       <c r="G95">
-        <v>0.111764183797601</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,22 +2588,22 @@
         <v>42704</v>
       </c>
       <c r="B96">
-        <v>0.5966872686060897</v>
+        <v>0.74</v>
       </c>
       <c r="C96">
-        <v>0.07816569651992128</v>
+        <v>0.06</v>
       </c>
       <c r="D96">
-        <v>2.59884129300589e-17</v>
+        <v>0.12</v>
       </c>
       <c r="E96">
-        <v>0.1084701261924993</v>
+        <v>0.02</v>
       </c>
       <c r="F96">
-        <v>0.1118809885234226</v>
+        <v>0.06</v>
       </c>
       <c r="G96">
-        <v>0.1047959201580672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,22 +2611,22 @@
         <v>42734</v>
       </c>
       <c r="B97">
-        <v>0.6018767914792751</v>
+        <v>0.77</v>
       </c>
       <c r="C97">
-        <v>0.05763373381939617</v>
+        <v>0.05</v>
       </c>
       <c r="D97">
-        <v>2.190104411613995e-18</v>
+        <v>0.1</v>
       </c>
       <c r="E97">
-        <v>0.1567254813043284</v>
+        <v>0.02</v>
       </c>
       <c r="F97">
-        <v>0.06374127479765611</v>
+        <v>0.05</v>
       </c>
       <c r="G97">
-        <v>0.1200227185993442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,22 +2634,22 @@
         <v>42766</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C98">
-        <v>0.06468076700176105</v>
+        <v>0.03</v>
       </c>
       <c r="D98">
-        <v>0.01081043949893744</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E98">
-        <v>0.1619580808466062</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.506546711744303e-17</v>
+        <v>0.02</v>
       </c>
       <c r="G98">
-        <v>0.1559045994250073</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,22 +2657,22 @@
         <v>42794</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="C99">
-        <v>8.095326193469451e-18</v>
+        <v>0.03</v>
       </c>
       <c r="D99">
-        <v>0.09020622026642525</v>
+        <v>0.06</v>
       </c>
       <c r="E99">
-        <v>0.1633888188285549</v>
+        <v>0.03</v>
       </c>
       <c r="F99">
-        <v>0.02132430525646803</v>
+        <v>0.03</v>
       </c>
       <c r="G99">
-        <v>0.1235867575524387</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Asset Allocation/backtest_jinqu_weight.xlsx
+++ b/Asset Allocation/backtest_jinqu_weight.xlsx
@@ -426,10 +426,10 @@
         <v>39836</v>
       </c>
       <c r="B2">
-        <v>0.9629638746952164</v>
+        <v>0.731532008329494</v>
       </c>
       <c r="C2">
-        <v>0.005899264812445165</v>
+        <v>0.0427626745218253</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.008110401367383622</v>
+        <v>0.0587907932623988</v>
       </c>
       <c r="G2">
-        <v>0.02302645912495483</v>
+        <v>0.166914523886282</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>39871</v>
       </c>
       <c r="B3">
-        <v>0.4870646129773867</v>
+        <v>0.33402958781192</v>
       </c>
       <c r="C3">
-        <v>0.009330551029309249</v>
+        <v>0.11971774709117</v>
       </c>
       <c r="D3">
-        <v>3.551659678992044e-18</v>
+        <v>2.48138301898147e-17</v>
       </c>
       <c r="E3">
-        <v>0.001594319933026341</v>
+        <v>0.0204562826143599</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>8.52792771295629e-18</v>
       </c>
       <c r="G3">
-        <v>0.0149459030828909</v>
+        <v>0.191766794670631</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>39903</v>
       </c>
       <c r="B4">
-        <v>0.4870121777666737</v>
+        <v>0.378517308633308</v>
       </c>
       <c r="C4">
-        <v>0.009427421435073347</v>
+        <v>0.088180182593877</v>
       </c>
       <c r="D4">
-        <v>5.968841169488512e-19</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0007959875166459415</v>
+        <v>0.00744533603254223</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>7.10475354289146e-19</v>
       </c>
       <c r="G4">
-        <v>0.01495624799828738</v>
+        <v>0.139894528074423</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>39933</v>
       </c>
       <c r="B5">
-        <v>0.9715597604738235</v>
+        <v>0.764614357012436</v>
       </c>
       <c r="C5">
-        <v>2.60992379372588e-18</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.16941368697929e-17</v>
       </c>
       <c r="E5">
-        <v>0.003560684736484848</v>
+        <v>0.0294700071794229</v>
       </c>
       <c r="F5">
-        <v>0.003453919132052721</v>
+        <v>0.0285863618217213</v>
       </c>
       <c r="G5">
-        <v>0.01441103178910127</v>
+        <v>0.119272904985275</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>39960</v>
       </c>
       <c r="B6">
-        <v>0.9691223971118443</v>
+        <v>0.820440281766018</v>
       </c>
       <c r="C6">
-        <v>0.01078938874355589</v>
+        <v>0.0627425522159194</v>
       </c>
       <c r="D6">
-        <v>9.218416598203475e-18</v>
+        <v>2.27004829864152e-18</v>
       </c>
       <c r="E6">
-        <v>0.001254602921222678</v>
+        <v>0.00729577866910961</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0175790083021544</v>
+        <v>0.102225608679843</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.9604536238520108</v>
+        <v>0.810244068392543</v>
       </c>
       <c r="C7">
-        <v>0.01170250141095416</v>
+        <v>0.0561522766262303</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.93276687657329e-17</v>
       </c>
       <c r="E7">
-        <v>0.003425015573325409</v>
+        <v>0.0164342998956799</v>
       </c>
       <c r="F7">
-        <v>1.964394704845814e-18</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.02099384359038423</v>
+        <v>0.100735055189867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>40025</v>
       </c>
       <c r="B8">
-        <v>0.9641599812417122</v>
+        <v>0.778584770229955</v>
       </c>
       <c r="C8">
-        <v>0.01151249529438482</v>
+        <v>0.0711227804316374</v>
       </c>
       <c r="D8">
-        <v>3.250721584440981e-17</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.002818429479709484</v>
+        <v>0.0174119105935521</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.76276736405935e-17</v>
       </c>
       <c r="G8">
-        <v>0.01869066450448396</v>
+        <v>0.115468628151303</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>40056</v>
       </c>
       <c r="B9">
-        <v>0.4854913336417803</v>
+        <v>0.409402451812789</v>
       </c>
       <c r="C9">
-        <v>0.001464214144770086</v>
+        <v>0.00914310173565971</v>
       </c>
       <c r="D9">
-        <v>2.441652520768672e-18</v>
+        <v>2.0870891820346e-18</v>
       </c>
       <c r="E9">
-        <v>0.004284255093850588</v>
+        <v>0.0267524940272238</v>
       </c>
       <c r="F9">
-        <v>0.001341511982783303</v>
+        <v>0.0083769033813452</v>
       </c>
       <c r="G9">
-        <v>0.01630158441840159</v>
+        <v>0.101793199821624</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,7 +610,7 @@
         <v>40086</v>
       </c>
       <c r="B10">
-        <v>0.9686000043327607</v>
+        <v>0.81626538858647</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.004233163369369661</v>
+        <v>0.0247700234480444</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.28648783534669e-18</v>
       </c>
       <c r="G10">
-        <v>0.0174670411920993</v>
+        <v>0.10220702111962</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,22 +633,22 @@
         <v>40116</v>
       </c>
       <c r="B11">
-        <v>0.9701117222787611</v>
+        <v>0.801265036348517</v>
       </c>
       <c r="C11">
-        <v>0.002680308854843667</v>
+        <v>0.0178220738176596</v>
       </c>
       <c r="D11">
-        <v>8.70590231645279e-19</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.008875427242661754</v>
+        <v>0.059015034179885</v>
       </c>
       <c r="F11">
-        <v>2.731984710021867e-19</v>
+        <v>1.1917224172276e-18</v>
       </c>
       <c r="G11">
-        <v>0.01565223276888978</v>
+        <v>0.104075781836279</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>40147</v>
       </c>
       <c r="B12">
-        <v>0.9712563576608717</v>
+        <v>0.797594012662562</v>
       </c>
       <c r="C12">
-        <v>0.004183097797249302</v>
+        <v>0.0294563934695301</v>
       </c>
       <c r="D12">
-        <v>8.023144012577013e-19</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01076303983123932</v>
+        <v>0.0757908015754267</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.01379750471063964</v>
+        <v>0.0971587922924809</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,22 +679,22 @@
         <v>40178</v>
       </c>
       <c r="B13">
-        <v>0.9664846781410114</v>
+        <v>0.770432187564877</v>
       </c>
       <c r="C13">
-        <v>0.005193294070810065</v>
+        <v>0.0355721825120413</v>
       </c>
       <c r="D13">
-        <v>3.395236045262615e-18</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.008781209370793751</v>
+        <v>0.0601481015849882</v>
       </c>
       <c r="F13">
-        <v>0.006134391723866992</v>
+        <v>0.0420183618825545</v>
       </c>
       <c r="G13">
-        <v>0.01340642669351782</v>
+        <v>0.0918291664555396</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,22 +702,22 @@
         <v>40207</v>
       </c>
       <c r="B14">
-        <v>0.9642596126182958</v>
+        <v>0.786346045748244</v>
       </c>
       <c r="C14">
-        <v>0.004158962357747129</v>
+        <v>0.0248620350145738</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9.52065032713834e-19</v>
       </c>
       <c r="E14">
-        <v>0.01053738651039386</v>
+        <v>0.0629918815623033</v>
       </c>
       <c r="F14">
-        <v>0.005603545735113281</v>
+        <v>0.0334976713148958</v>
       </c>
       <c r="G14">
-        <v>0.01544049277844989</v>
+        <v>0.0923023663599831</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,22 +725,22 @@
         <v>40235</v>
       </c>
       <c r="B15">
-        <v>0.9625579446722747</v>
+        <v>0.790167718535118</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.36711117686844e-18</v>
       </c>
       <c r="D15">
-        <v>0.004362604054893711</v>
+        <v>0.0244488502388777</v>
       </c>
       <c r="E15">
-        <v>0.006128642634117868</v>
+        <v>0.0343460605244542</v>
       </c>
       <c r="F15">
-        <v>0.004195062763573125</v>
+        <v>0.0235099153073557</v>
       </c>
       <c r="G15">
-        <v>0.01662710324102266</v>
+        <v>0.0931813948697407</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,22 +748,22 @@
         <v>40268</v>
       </c>
       <c r="B16">
-        <v>0.9538662002035145</v>
+        <v>0.776239927452795</v>
       </c>
       <c r="C16">
-        <v>0.0009721011053956832</v>
+        <v>0.00471492488402031</v>
       </c>
       <c r="D16">
-        <v>0.004614570260078168</v>
+        <v>0.0223817801331271</v>
       </c>
       <c r="E16">
-        <v>0.01505480606920351</v>
+        <v>0.0730194436296864</v>
       </c>
       <c r="F16">
-        <v>0.005711916586556546</v>
+        <v>0.0277041778638753</v>
       </c>
       <c r="G16">
-        <v>0.01880830466985583</v>
+        <v>0.0912248211524754</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,22 +771,22 @@
         <v>40298</v>
       </c>
       <c r="B17">
-        <v>0.9481981732088562</v>
+        <v>0.766960362216956</v>
       </c>
       <c r="C17">
-        <v>0.00209655211975481</v>
+        <v>0.00943170812111448</v>
       </c>
       <c r="D17">
-        <v>0.005651118770449259</v>
+        <v>0.025422554376634</v>
       </c>
       <c r="E17">
-        <v>0.01520518316148215</v>
+        <v>0.0684031945728944</v>
       </c>
       <c r="F17">
-        <v>0.008363431373060209</v>
+        <v>0.0376243679160741</v>
       </c>
       <c r="G17">
-        <v>0.02048554136639737</v>
+        <v>0.0921578127963265</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,10 +794,10 @@
         <v>40329</v>
       </c>
       <c r="B18">
-        <v>0.94185718559644</v>
+        <v>0.695410710380059</v>
       </c>
       <c r="C18">
-        <v>0.005110850072690863</v>
+        <v>0.0267739051156965</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02245276163206235</v>
+        <v>0.117621940999183</v>
       </c>
       <c r="G18">
-        <v>0.02546835262611583</v>
+        <v>0.133419538389365</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,22 +817,22 @@
         <v>40359</v>
       </c>
       <c r="B19">
-        <v>0.9358222605352431</v>
+        <v>0.791414886252299</v>
       </c>
       <c r="C19">
-        <v>0.001705658077242093</v>
+        <v>0.00554358699036531</v>
       </c>
       <c r="D19">
-        <v>0.002874576824042023</v>
+        <v>0.00934270897117939</v>
       </c>
       <c r="E19">
-        <v>0.01630923987301198</v>
+        <v>0.0530069278305755</v>
       </c>
       <c r="F19">
-        <v>0.004177639987893971</v>
+        <v>0.0135778142672178</v>
       </c>
       <c r="G19">
-        <v>0.03035274981338881</v>
+        <v>0.0986499654596004</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,22 +840,22 @@
         <v>40389</v>
       </c>
       <c r="B20">
-        <v>0.933233821945419</v>
+        <v>0.70102673382326</v>
       </c>
       <c r="C20">
-        <v>0.007425733878211507</v>
+        <v>0.033251804982488</v>
       </c>
       <c r="D20">
-        <v>3.545953789524276e-18</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4.784181331731995e-18</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.01076818839624741</v>
+        <v>0.0482190313988133</v>
       </c>
       <c r="G20">
-        <v>0.03037833350566306</v>
+        <v>0.136031593414137</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,22 +863,22 @@
         <v>40421</v>
       </c>
       <c r="B21">
-        <v>0.928914169659503</v>
+        <v>0.732880682602832</v>
       </c>
       <c r="C21">
-        <v>0.01240631199872644</v>
+        <v>0.0466192138136691</v>
       </c>
       <c r="D21">
-        <v>0.0006903866992734174</v>
+        <v>0.00259426760599438</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.02188375795908602</v>
+        <v>0.0822326270131747</v>
       </c>
       <c r="G21">
-        <v>0.03610537368341108</v>
+        <v>0.13567320896433</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,22 +886,22 @@
         <v>40451</v>
       </c>
       <c r="B22">
-        <v>0.9236771495293139</v>
+        <v>0.682522497968379</v>
       </c>
       <c r="C22">
-        <v>0.01694610421437633</v>
+        <v>0.0704901196929436</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.746793465170083e-18</v>
+        <v>4.8653572490287e-17</v>
       </c>
       <c r="F22">
-        <v>0.01968613824155149</v>
+        <v>0.0818877428170937</v>
       </c>
       <c r="G22">
-        <v>0.0396906080147583</v>
+        <v>0.165099639521584</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,22 +909,22 @@
         <v>40480</v>
       </c>
       <c r="B23">
-        <v>0.9204446226107417</v>
+        <v>0.690887371806802</v>
       </c>
       <c r="C23">
-        <v>0.015120965938229</v>
+        <v>0.0587525528734615</v>
       </c>
       <c r="D23">
-        <v>9.673892335325302e-18</v>
+        <v>4.93650801659806e-18</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1.57253360723655e-16</v>
       </c>
       <c r="F23">
-        <v>0.02840926065023027</v>
+        <v>0.110384257625539</v>
       </c>
       <c r="G23">
-        <v>0.03602515080079906</v>
+        <v>0.139975817694198</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,22 +932,22 @@
         <v>40512</v>
       </c>
       <c r="B24">
-        <v>0.4632291105404401</v>
+        <v>0.37120732742344</v>
       </c>
       <c r="C24">
-        <v>0.006217526389543778</v>
+        <v>0.0217773308033751</v>
       </c>
       <c r="D24">
-        <v>0.009833063439141872</v>
+        <v>0.0344410090969385</v>
       </c>
       <c r="E24">
-        <v>3.648612056695977e-17</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.02381419164598519</v>
+        <v>0.0834109113439556</v>
       </c>
       <c r="G24">
-        <v>0.03367699744444892</v>
+        <v>0.117956093908852</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,22 +955,22 @@
         <v>40543</v>
       </c>
       <c r="B25">
-        <v>0.4679003453691133</v>
+        <v>0.403315101199553</v>
       </c>
       <c r="C25">
-        <v>0.01185015459093263</v>
+        <v>0.0356929385144479</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.008893754979913454</v>
+        <v>0.0267881974063132</v>
       </c>
       <c r="F25">
-        <v>0.008292400214510985</v>
+        <v>0.0249768963599976</v>
       </c>
       <c r="G25">
-        <v>0.03516299947641634</v>
+        <v>0.105911765320136</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,22 +978,22 @@
         <v>40574</v>
       </c>
       <c r="B26">
-        <v>0.930779716573624</v>
+        <v>0.778588265890889</v>
       </c>
       <c r="C26">
-        <v>0.01215320033846662</v>
+        <v>0.038873882084267</v>
       </c>
       <c r="D26">
-        <v>4.02933661300277e-18</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3.322825697946816e-18</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.02328900649293333</v>
+        <v>0.0744934733968327</v>
       </c>
       <c r="G26">
-        <v>0.03377807659497608</v>
+        <v>0.108044378628012</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>40602</v>
       </c>
       <c r="B27">
-        <v>0.9336891665368711</v>
+        <v>0.783156865353194</v>
       </c>
       <c r="C27">
-        <v>0.005809814765765639</v>
+        <v>0.0189986823399287</v>
       </c>
       <c r="D27">
-        <v>4.165097287585278e-19</v>
+        <v>1.1278243692691e-18</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.019636489449068</v>
+        <v>0.0642133067779412</v>
       </c>
       <c r="G27">
-        <v>0.03505471448252966</v>
+        <v>0.114632463189008</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>40633</v>
       </c>
       <c r="B28">
-        <v>0.9333334066145101</v>
+        <v>0.781537594547116</v>
       </c>
       <c r="C28">
-        <v>0.004922517713718627</v>
+        <v>0.0161307935103463</v>
       </c>
       <c r="D28">
-        <v>0.003596828986904567</v>
+        <v>0.0117865914002339</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.01655869490505274</v>
+        <v>0.0542618455926175</v>
       </c>
       <c r="G28">
-        <v>0.03306920507919076</v>
+        <v>0.108365790039106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>40662</v>
       </c>
       <c r="B29">
-        <v>0.9266493270279761</v>
+        <v>0.798330292518601</v>
       </c>
       <c r="C29">
-        <v>0.006587292896673482</v>
+        <v>0.0181110460022257</v>
       </c>
       <c r="D29">
-        <v>1.492494383822391e-18</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2.016816025235813e-17</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.02185078924362995</v>
+        <v>0.0600763728875362</v>
       </c>
       <c r="G29">
-        <v>0.03832529793504699</v>
+        <v>0.105371242589412</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>40694</v>
       </c>
       <c r="B30">
-        <v>0.9200269985451738</v>
+        <v>0.795460675782615</v>
       </c>
       <c r="C30">
-        <v>1.75493407815623e-18</v>
+        <v>7.8401369597858e-18</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4.1462262768098e-19</v>
       </c>
       <c r="E30">
-        <v>0.01818490807985881</v>
+        <v>0.0465098062104134</v>
       </c>
       <c r="F30">
-        <v>0.02453320744375269</v>
+        <v>0.0627462459990592</v>
       </c>
       <c r="G30">
-        <v>0.03725488593121469</v>
+        <v>0.0952832720079124</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>40724</v>
       </c>
       <c r="B31">
-        <v>0.9121147858786071</v>
+        <v>0.783692145994429</v>
       </c>
       <c r="C31">
-        <v>0.008471820099878831</v>
+        <v>0.0208513028450614</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.62470809118533e-17</v>
       </c>
       <c r="F31">
-        <v>0.02905346128146037</v>
+        <v>0.0715079544672002</v>
       </c>
       <c r="G31">
-        <v>0.04188811264017493</v>
+        <v>0.103097293848248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>40753</v>
       </c>
       <c r="B32">
-        <v>0.9162377882677779</v>
+        <v>0.835141295445921</v>
       </c>
       <c r="C32">
-        <v>0.001600964047233064</v>
+        <v>0.00315097818617454</v>
       </c>
       <c r="D32">
-        <v>0.006426936078720279</v>
+        <v>0.0126493351195247</v>
       </c>
       <c r="E32">
-        <v>0.01984516306941409</v>
+        <v>0.0390587558763432</v>
       </c>
       <c r="F32">
-        <v>0.01415057760951476</v>
+        <v>0.0278508159793801</v>
       </c>
       <c r="G32">
-        <v>0.03371067080138653</v>
+        <v>0.0663485060869576</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>40786</v>
       </c>
       <c r="B33">
-        <v>0.4610110246075178</v>
+        <v>0.414197940124631</v>
       </c>
       <c r="C33">
-        <v>0.005239500225076112</v>
+        <v>0.0115304367933845</v>
       </c>
       <c r="D33">
-        <v>5.485743140389267e-19</v>
+        <v>1.72731193768833e-18</v>
       </c>
       <c r="E33">
-        <v>0.01565208546734326</v>
+        <v>0.0344451507627936</v>
       </c>
       <c r="F33">
-        <v>0.0164666586751578</v>
+        <v>0.0362377635311783</v>
       </c>
       <c r="G33">
-        <v>0.03538020619231106</v>
+        <v>0.0778603318699972</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>40816</v>
       </c>
       <c r="B34">
-        <v>0.4603346750474945</v>
+        <v>0.410550128438704</v>
       </c>
       <c r="C34">
-        <v>0.009354979207004729</v>
+        <v>0.0210965547461856</v>
       </c>
       <c r="D34">
-        <v>6.955081416028753e-18</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.006278923976587683</v>
+        <v>0.0141596962356104</v>
       </c>
       <c r="F34">
-        <v>0.009213598994638084</v>
+        <v>0.0207777257316122</v>
       </c>
       <c r="G34">
-        <v>0.02963564554855005</v>
+        <v>0.0668317896957747</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,22 +1185,22 @@
         <v>40847</v>
       </c>
       <c r="B35">
-        <v>0.9211294506387286</v>
+        <v>0.816617376513691</v>
       </c>
       <c r="C35">
-        <v>0.0125280370729306</v>
+        <v>0.0291290518778488</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>8.66419943230175e-17</v>
       </c>
       <c r="E35">
-        <v>1.765935357130417e-17</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.006811359990015638</v>
+        <v>0.0158371541507077</v>
       </c>
       <c r="G35">
-        <v>0.02009587761768942</v>
+        <v>0.0467251057145978</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>40877</v>
       </c>
       <c r="B36">
-        <v>0.905464079861499</v>
+        <v>0.835934206679552</v>
       </c>
       <c r="C36">
-        <v>0.002979562414340339</v>
+        <v>0.00517098923214799</v>
       </c>
       <c r="D36">
-        <v>0.01105392978787352</v>
+        <v>0.0191839447909161</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.02637871105407103</v>
+        <v>0.0457798900883788</v>
       </c>
       <c r="G36">
-        <v>0.04009022468000228</v>
+        <v>0.0695760351859412</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>40907</v>
       </c>
       <c r="B37">
-        <v>0.8941456026993133</v>
+        <v>0.781175106601926</v>
       </c>
       <c r="C37">
-        <v>0.006106018846767967</v>
+        <v>0.012622517512972</v>
       </c>
       <c r="D37">
-        <v>0.007067492566968021</v>
+        <v>0.0146100995300463</v>
       </c>
       <c r="E37">
-        <v>9.582475273678392e-18</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.04039926077522883</v>
+        <v>0.0835143756580711</v>
       </c>
       <c r="G37">
-        <v>0.03910811369798592</v>
+        <v>0.0808452836539659</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>40939</v>
       </c>
       <c r="B38">
-        <v>0.8709350127931408</v>
+        <v>0.787673567174145</v>
       </c>
       <c r="C38">
-        <v>0.01847631644811297</v>
+        <v>0.0303956203123483</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.006891567417699996</v>
+        <v>0.0113374040844507</v>
       </c>
       <c r="F38">
-        <v>0.02740276055285067</v>
+        <v>0.0450806260834481</v>
       </c>
       <c r="G38">
-        <v>0.02546322946119128</v>
+        <v>0.0418898789744043</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>40968</v>
       </c>
       <c r="B39">
-        <v>0.8602725582960866</v>
+        <v>0.786908186247995</v>
       </c>
       <c r="C39">
-        <v>0.03825196624705776</v>
+        <v>0.0583362926616975</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8.68522173126142e-17</v>
       </c>
       <c r="E39">
-        <v>0.009554264521636099</v>
+        <v>0.0145707633050583</v>
       </c>
       <c r="F39">
-        <v>0.03234419328122402</v>
+        <v>0.0493266238260546</v>
       </c>
       <c r="G39">
-        <v>0.05002275313235947</v>
+        <v>0.0762873706541363</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,22 +1300,22 @@
         <v>40998</v>
       </c>
       <c r="B40">
-        <v>0.8586797081601835</v>
+        <v>0.778027602249905</v>
       </c>
       <c r="C40">
-        <v>0.02746374905266293</v>
+        <v>0.0431374290270265</v>
       </c>
       <c r="D40">
-        <v>0.01335842305899734</v>
+        <v>0.0209821347849182</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4.91651803904286e-17</v>
       </c>
       <c r="F40">
-        <v>0.05434156190035348</v>
+        <v>0.085354528184648</v>
       </c>
       <c r="G40">
-        <v>0.04615655782780276</v>
+        <v>0.072498305753502</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,22 +1323,22 @@
         <v>41026</v>
       </c>
       <c r="B41">
-        <v>0.8585685706596577</v>
+        <v>0.835656766475725</v>
       </c>
       <c r="C41">
-        <v>3.265670933252286e-19</v>
+        <v>3.54059771952297e-19</v>
       </c>
       <c r="D41">
-        <v>0.01048243355530805</v>
+        <v>0.0121805816760435</v>
       </c>
       <c r="E41">
-        <v>0.01349943495767454</v>
+        <v>0.015686335646101</v>
       </c>
       <c r="F41">
-        <v>0.03044997375493775</v>
+        <v>0.0353828495634565</v>
       </c>
       <c r="G41">
-        <v>0.07350015211474742</v>
+        <v>0.0854071309925729</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,22 +1346,22 @@
         <v>41060</v>
       </c>
       <c r="B42">
-        <v>0.8570122408314101</v>
+        <v>0.81071049559167</v>
       </c>
       <c r="C42">
-        <v>0.03572946461790596</v>
+        <v>0.0472992424711226</v>
       </c>
       <c r="D42">
-        <v>3.418163050292391e-17</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.01288400136945598</v>
+        <v>0.0170560486699367</v>
       </c>
       <c r="F42">
-        <v>0.0308878368535744</v>
+        <v>0.0408898177393837</v>
       </c>
       <c r="G42">
-        <v>0.05060245495819749</v>
+        <v>0.0669883468579506</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,22 +1369,22 @@
         <v>41089</v>
       </c>
       <c r="B43">
-        <v>0.8444947653179873</v>
+        <v>0.836323484874436</v>
       </c>
       <c r="C43">
-        <v>0.03991442628126497</v>
+        <v>0.0420117966376345</v>
       </c>
       <c r="D43">
-        <v>1.185310692740386e-17</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.01259352779041393</v>
+        <v>0.0132552759859659</v>
       </c>
       <c r="F43">
-        <v>0.03623013625970228</v>
+        <v>0.0381339076855718</v>
       </c>
       <c r="G43">
-        <v>0.02708680828010877</v>
+        <v>0.028510129415213</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,22 +1392,22 @@
         <v>41121</v>
       </c>
       <c r="B44">
-        <v>0.8398725033073933</v>
+        <v>0.808923856019376</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3.77518349426505e-17</v>
       </c>
       <c r="D44">
-        <v>5.393603797021879e-17</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.03198523730479067</v>
+        <v>0.0381671852543406</v>
       </c>
       <c r="F44">
-        <v>0.04518652677771092</v>
+        <v>0.0539199541436965</v>
       </c>
       <c r="G44">
-        <v>0.02548524765265724</v>
+        <v>0.0304109096641232</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,10 +1415,10 @@
         <v>41152</v>
       </c>
       <c r="B45">
-        <v>0.8346568718384005</v>
+        <v>0.8054404513811</v>
       </c>
       <c r="C45">
-        <v>0.02458697160006725</v>
+        <v>0.028931532530544</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.06047047955329273</v>
+        <v>0.071155718854571</v>
       </c>
       <c r="G45">
-        <v>0.02784935270408611</v>
+        <v>0.0327703823516207</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,22 +1438,22 @@
         <v>41180</v>
       </c>
       <c r="B46">
-        <v>0.8389530873559502</v>
+        <v>0.758815600399459</v>
       </c>
       <c r="C46">
-        <v>0.02423231680200682</v>
+        <v>0.0362903982408877</v>
       </c>
       <c r="D46">
-        <v>0.004487335939428738</v>
+        <v>0.00672025012165141</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.06076715830135692</v>
+        <v>0.0910051030301661</v>
       </c>
       <c r="G46">
-        <v>0.0214202244299109</v>
+        <v>0.0320789999226486</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,22 +1461,22 @@
         <v>41213</v>
       </c>
       <c r="B47">
-        <v>0.8363291959375004</v>
+        <v>0.814140795367273</v>
       </c>
       <c r="C47">
-        <v>0.04554795979453632</v>
+        <v>0.0517227718329117</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3.10437575168701e-19</v>
       </c>
       <c r="E47">
-        <v>0.02523188408504139</v>
+        <v>0.0286525019037538</v>
       </c>
       <c r="F47">
-        <v>0.0299211855716522</v>
+        <v>0.0339775161517629</v>
       </c>
       <c r="G47">
-        <v>0.01886894526311411</v>
+        <v>0.0214269564202723</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,22 +1484,22 @@
         <v>41243</v>
       </c>
       <c r="B48">
-        <v>0.8362898217832114</v>
+        <v>0.776112889052156</v>
       </c>
       <c r="C48">
-        <v>0.06044824495490156</v>
+        <v>0.0826679392565891</v>
       </c>
       <c r="D48">
-        <v>2.571604803570752e-17</v>
+        <v>1.08235564066049e-16</v>
       </c>
       <c r="E48">
-        <v>0.03881706909634506</v>
+        <v>0.053085529716218</v>
       </c>
       <c r="F48">
-        <v>0.02103414744235637</v>
+        <v>0.0287659234966893</v>
       </c>
       <c r="G48">
-        <v>0.02170535836159277</v>
+        <v>0.029683859239174</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,22 +1507,22 @@
         <v>41274</v>
       </c>
       <c r="B49">
-        <v>0.8358338336867712</v>
+        <v>0.78977242587167</v>
       </c>
       <c r="C49">
-        <v>0.05255019716017074</v>
+        <v>0.0672946248144587</v>
       </c>
       <c r="D49">
-        <v>1.554728430456693e-17</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.04095919221223133</v>
+        <v>0.0524514371420244</v>
       </c>
       <c r="F49">
-        <v>0.02993340686228099</v>
+        <v>0.0383320613287175</v>
       </c>
       <c r="G49">
-        <v>0.02036168503927284</v>
+        <v>0.0260747254215647</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>41305</v>
       </c>
       <c r="B50">
-        <v>0.8099132391938457</v>
+        <v>0.781603710118541</v>
       </c>
       <c r="C50">
-        <v>0.07172591951163224</v>
+        <v>0.0824080261490058</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1.11232366633435e-17</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.20568089217863e-17</v>
       </c>
       <c r="F50">
-        <v>0.0585653120069585</v>
+        <v>0.0672874152053251</v>
       </c>
       <c r="G50">
-        <v>0.02989776464378177</v>
+        <v>0.0343504242635642</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,10 +1553,10 @@
         <v>41333</v>
       </c>
       <c r="B51">
-        <v>0.8011781735227231</v>
+        <v>0.789922414853793</v>
       </c>
       <c r="C51">
-        <v>0.0549277709679325</v>
+        <v>0.0580373581582013</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.08158973147906039</v>
+        <v>0.0862087128318613</v>
       </c>
       <c r="G51">
-        <v>0.03115216201514198</v>
+        <v>0.0329157570780722</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>41362</v>
       </c>
       <c r="B52">
-        <v>0.8000600508732529</v>
+        <v>0.811492030604432</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>9.6900569165892e-19</v>
       </c>
       <c r="D52">
-        <v>0.05459429874842823</v>
+        <v>0.0514727567540085</v>
       </c>
       <c r="E52">
-        <v>0.05482269070378561</v>
+        <v>0.0516880896923186</v>
       </c>
       <c r="F52">
-        <v>0.04294694945312696</v>
+        <v>0.0404913697840803</v>
       </c>
       <c r="G52">
-        <v>0.0237880051107031</v>
+        <v>0.0224278765825802</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>41390</v>
       </c>
       <c r="B53">
-        <v>0.8002544921428667</v>
+        <v>0.828584636680123</v>
       </c>
       <c r="C53">
-        <v>0.005857513632279565</v>
+        <v>0.00338306852838358</v>
       </c>
       <c r="D53">
-        <v>0.008890140870364363</v>
+        <v>0.0151179845416679</v>
       </c>
       <c r="E53">
-        <v>0.05223434642714301</v>
+        <v>0.0391343842365827</v>
       </c>
       <c r="F53">
-        <v>0.06808057443131205</v>
+        <v>0.0508753854984765</v>
       </c>
       <c r="G53">
-        <v>0.03234146624801711</v>
+        <v>0.0314522702573833</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>41425</v>
       </c>
       <c r="B54">
-        <v>0.7945273730650804</v>
+        <v>0.78278178482992</v>
       </c>
       <c r="C54">
-        <v>0.009206686207549448</v>
+        <v>0.00973293125958084</v>
       </c>
       <c r="D54">
-        <v>0.02750794380812109</v>
+        <v>0.0290883146846898</v>
       </c>
       <c r="E54">
-        <v>0.0309469309249429</v>
+        <v>0.0327148994623766</v>
       </c>
       <c r="F54">
-        <v>0.06996401841726703</v>
+        <v>0.0739591321141202</v>
       </c>
       <c r="G54">
-        <v>0.02932018068474485</v>
+        <v>0.0309950031948658</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>41453</v>
       </c>
       <c r="B55">
-        <v>0.7872884912987443</v>
+        <v>0.8007734687446</v>
       </c>
       <c r="C55">
-        <v>0.01081618571162111</v>
+        <v>0.0101304868865129</v>
       </c>
       <c r="D55">
-        <v>0.02664704985283389</v>
+        <v>0.0249577437215732</v>
       </c>
       <c r="E55">
-        <v>0.04369727675376325</v>
+        <v>0.0409270609711918</v>
       </c>
       <c r="F55">
-        <v>0.06462792223748143</v>
+        <v>0.0605307953922516</v>
       </c>
       <c r="G55">
-        <v>0.02805344421696746</v>
+        <v>0.0262749786986789</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>41486</v>
       </c>
       <c r="B56">
-        <v>0.8001766118617006</v>
+        <v>0.806842015000322</v>
       </c>
       <c r="C56">
-        <v>0.01646753911995194</v>
+        <v>0.0159182408714814</v>
       </c>
       <c r="D56">
-        <v>0.0002674628388060943</v>
+        <v>0.000258540980177264</v>
       </c>
       <c r="E56">
-        <v>0.02526690591225874</v>
+        <v>0.0244240890141382</v>
       </c>
       <c r="F56">
-        <v>0.03921676501515514</v>
+        <v>0.0379086370874391</v>
       </c>
       <c r="G56">
-        <v>0.03830140369055536</v>
+        <v>0.0370238030903229</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>41516</v>
       </c>
       <c r="B57">
-        <v>0.7977394692511901</v>
+        <v>0.801360826095686</v>
       </c>
       <c r="C57">
-        <v>0.0230328115802105</v>
+        <v>0.0226204227845066</v>
       </c>
       <c r="D57">
-        <v>1.293712589866342e-18</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.04956807680641449</v>
+        <v>0.0486805887910717</v>
       </c>
       <c r="F57">
-        <v>0.0405358626254583</v>
+        <v>0.0398100918624375</v>
       </c>
       <c r="G57">
-        <v>0.06609096815651606</v>
+        <v>0.0649076476817915</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,22 +1714,22 @@
         <v>41547</v>
       </c>
       <c r="B58">
-        <v>0.4012283302734991</v>
+        <v>0.410376099925333</v>
       </c>
       <c r="C58">
-        <v>0.01749047077448454</v>
+        <v>0.015870585102719</v>
       </c>
       <c r="D58">
-        <v>0.01143167759863681</v>
+        <v>0.0103729291398609</v>
       </c>
       <c r="E58">
-        <v>0.04417099375075879</v>
+        <v>0.0400800819918995</v>
       </c>
       <c r="F58">
-        <v>0.04845341851270668</v>
+        <v>0.0439658913432816</v>
       </c>
       <c r="G58">
-        <v>0.07599677881641496</v>
+        <v>0.0689583125715724</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,22 +1737,22 @@
         <v>41578</v>
       </c>
       <c r="B59">
-        <v>0.8063703262063627</v>
+        <v>0.83840630434045</v>
       </c>
       <c r="C59">
-        <v>0.02901466225328507</v>
+        <v>0.0242141940942751</v>
       </c>
       <c r="D59">
-        <v>0.03757063916021779</v>
+        <v>0.0313545871825167</v>
       </c>
       <c r="E59">
-        <v>2.833760980052825e-18</v>
+        <v>9.18183714823662e-18</v>
       </c>
       <c r="F59">
-        <v>0.08281559184358059</v>
+        <v>0.0691137732968824</v>
       </c>
       <c r="G59">
-        <v>0.04422878053655383</v>
+        <v>0.0369111410858755</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,22 +1760,22 @@
         <v>41607</v>
       </c>
       <c r="B60">
-        <v>0.8169697761074015</v>
+        <v>0.740614610673457</v>
       </c>
       <c r="C60">
-        <v>0.02896043830648386</v>
+        <v>0.0410419350541265</v>
       </c>
       <c r="D60">
-        <v>1.359152106334871e-18</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.06503536283084251</v>
+        <v>0.0921663245206242</v>
       </c>
       <c r="F60">
-        <v>0.0533117443784813</v>
+        <v>0.0755519343038184</v>
       </c>
       <c r="G60">
-        <v>0.03572267837679088</v>
+        <v>0.0506251954479742</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.03323161604338889</v>
+        <v>0.0695555207721261</v>
       </c>
       <c r="D61">
-        <v>7.413881252478022e-19</v>
+        <v>2.30325199017389e-17</v>
       </c>
       <c r="E61">
-        <v>2.285353177346828e-17</v>
+        <v>1.63375714866409e-17</v>
       </c>
       <c r="F61">
-        <v>0.0887682938832247</v>
+        <v>0.185796709976255</v>
       </c>
       <c r="G61">
-        <v>0.02461239130223415</v>
+        <v>0.0515150302692877</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.04741374363351476</v>
+        <v>0.103167369728695</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>3.70390567175361e-17</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>6.53926375939265e-17</v>
       </c>
       <c r="F62">
-        <v>0.0857776329858384</v>
+        <v>0.186643200083439</v>
       </c>
       <c r="G62">
-        <v>0.02198942869557299</v>
+        <v>0.0478467079111099</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>41698</v>
       </c>
       <c r="B63">
-        <v>0.4107977745690909</v>
+        <v>0.382140375227314</v>
       </c>
       <c r="C63">
-        <v>0.01723834125151388</v>
+        <v>0.0227764719064912</v>
       </c>
       <c r="D63">
-        <v>2.000167883570521e-19</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.02451645272590352</v>
+        <v>0.0323904708050336</v>
       </c>
       <c r="F63">
-        <v>0.06175946192949636</v>
+        <v>0.0816023498725088</v>
       </c>
       <c r="G63">
-        <v>0.05765185370339057</v>
+        <v>0.0761734850548474</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,22 +1852,22 @@
         <v>41729</v>
       </c>
       <c r="B64">
-        <v>0.8061164330587343</v>
+        <v>0.735606770392492</v>
       </c>
       <c r="C64">
-        <v>6.670289894890446e-19</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.03656195936741368</v>
+        <v>0.0498584512893124</v>
       </c>
       <c r="E64">
-        <v>0.04772376651666326</v>
+        <v>0.0650794745583167</v>
       </c>
       <c r="F64">
-        <v>0.06202990528410712</v>
+        <v>0.0845883304928095</v>
       </c>
       <c r="G64">
-        <v>0.04756793577308162</v>
+        <v>0.0648669732670693</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,22 +1875,22 @@
         <v>41759</v>
       </c>
       <c r="B65">
-        <v>0.8075117347030518</v>
+        <v>0.709356757414319</v>
       </c>
       <c r="C65">
-        <v>0.003777003342276549</v>
+        <v>0.00570300014954111</v>
       </c>
       <c r="D65">
-        <v>0.03431988031454663</v>
+        <v>0.0518205161044062</v>
       </c>
       <c r="E65">
-        <v>0.04946976792382012</v>
+        <v>0.0746957406519999</v>
       </c>
       <c r="F65">
-        <v>0.05841524812945172</v>
+        <v>0.0882027646495696</v>
       </c>
       <c r="G65">
-        <v>0.04272936224457663</v>
+        <v>0.0645182208806233</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,22 +1898,22 @@
         <v>41789</v>
       </c>
       <c r="B66">
-        <v>0.799263549384205</v>
+        <v>0.690789342229406</v>
       </c>
       <c r="C66">
-        <v>0.03649379074613761</v>
+        <v>0.0562143496211615</v>
       </c>
       <c r="D66">
-        <v>1.896004435566267e-18</v>
+        <v>7.87740640946499e-18</v>
       </c>
       <c r="E66">
-        <v>0.03551883050634555</v>
+        <v>0.0547125391881166</v>
       </c>
       <c r="F66">
-        <v>0.07110585837446473</v>
+        <v>0.109530128658133</v>
       </c>
       <c r="G66">
-        <v>0.05761797098884711</v>
+        <v>0.0887536403031827</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>41820</v>
       </c>
       <c r="B67">
-        <v>0.7893755595291514</v>
+        <v>0.603955041111104</v>
       </c>
       <c r="C67">
-        <v>2.297795545827286e-17</v>
+        <v>6.18757567969266e-18</v>
       </c>
       <c r="D67">
-        <v>0.05773860033864613</v>
+        <v>0.10856803455405</v>
       </c>
       <c r="E67">
-        <v>0.05221277303116202</v>
+        <v>0.0981776159710964</v>
       </c>
       <c r="F67">
-        <v>0.06502903158165273</v>
+        <v>0.122276503007973</v>
       </c>
       <c r="G67">
-        <v>0.03564403551938775</v>
+        <v>0.0670228053557762</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,22 +1944,22 @@
         <v>41851</v>
       </c>
       <c r="B68">
-        <v>0.7785823675711661</v>
+        <v>0.62339197160575</v>
       </c>
       <c r="C68">
-        <v>0.06020570847458885</v>
+        <v>0.10240532051898</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.02436737137947332</v>
+        <v>0.0414513175323875</v>
       </c>
       <c r="F68">
-        <v>0.07900826505097631</v>
+        <v>0.13437789671041</v>
       </c>
       <c r="G68">
-        <v>0.05783628752379546</v>
+        <v>0.098373493632472</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,22 +1967,22 @@
         <v>41880</v>
       </c>
       <c r="B69">
-        <v>0.7746234878888721</v>
+        <v>0.61932882902507</v>
       </c>
       <c r="C69">
-        <v>0.06200229960797485</v>
+        <v>0.104724702035794</v>
       </c>
       <c r="D69">
-        <v>1.069569716714572e-17</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0.03164578153929032</v>
+        <v>0.0534511647110782</v>
       </c>
       <c r="F69">
-        <v>0.08828267330792723</v>
+        <v>0.149113445689222</v>
       </c>
       <c r="G69">
-        <v>0.04344575765593547</v>
+        <v>0.0733818585388361</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,22 +1990,22 @@
         <v>41912</v>
       </c>
       <c r="B70">
-        <v>0.7667278067620094</v>
+        <v>0.531346352537993</v>
       </c>
       <c r="C70">
-        <v>0.07970497844674636</v>
+        <v>0.16013065465839</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5.51316804708879e-17</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5.50944110212087e-17</v>
       </c>
       <c r="F70">
-        <v>0.1039535800646433</v>
+        <v>0.208847113497671</v>
       </c>
       <c r="G70">
-        <v>0.049613634726601</v>
+        <v>0.0996758793059453</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>41943</v>
       </c>
       <c r="B71">
-        <v>0.7590894021056223</v>
+        <v>0.653210181614566</v>
       </c>
       <c r="C71">
-        <v>0.07045656739825315</v>
+        <v>0.1014219399147</v>
       </c>
       <c r="D71">
-        <v>2.028883602838508e-18</v>
+        <v>4.50621527939288e-18</v>
       </c>
       <c r="E71">
-        <v>0.01770151724316471</v>
+        <v>0.025481259820895</v>
       </c>
       <c r="F71">
-        <v>0.1038485767498091</v>
+        <v>0.149489602185222</v>
       </c>
       <c r="G71">
-        <v>0.02445196825157541</v>
+        <v>0.0351985082323084</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,22 +2036,22 @@
         <v>41971</v>
       </c>
       <c r="B72">
-        <v>0.7433370434692582</v>
+        <v>0.599799798903417</v>
       </c>
       <c r="C72">
-        <v>0.09220313539479852</v>
+        <v>0.143767197209267</v>
       </c>
       <c r="D72">
-        <v>0.006399101699097146</v>
+        <v>0.00997776017783175</v>
       </c>
       <c r="E72">
-        <v>0.02788564176335036</v>
+        <v>0.0434805213334198</v>
       </c>
       <c r="F72">
-        <v>0.09192854521919606</v>
+        <v>0.143339042116195</v>
       </c>
       <c r="G72">
-        <v>0.01912326622714987</v>
+        <v>0.0298178401299348</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,22 +2059,22 @@
         <v>42004</v>
       </c>
       <c r="B73">
-        <v>0.7217568720275227</v>
+        <v>0.625589162766119</v>
       </c>
       <c r="C73">
-        <v>9.563944285415579e-17</v>
+        <v>1.11618613657383e-16</v>
       </c>
       <c r="D73">
-        <v>0.0913557961328494</v>
+        <v>0.122930617639632</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>3.03576608295941e-18</v>
       </c>
       <c r="F73">
-        <v>0.1305188998370928</v>
+        <v>0.17562946254684</v>
       </c>
       <c r="G73">
-        <v>0.05636843200253497</v>
+        <v>0.0758507570474097</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,22 +2082,22 @@
         <v>42034</v>
       </c>
       <c r="B74">
-        <v>0.7079097790136593</v>
+        <v>0.626970202769222</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>6.97955148537543e-18</v>
       </c>
       <c r="D74">
-        <v>0.09002356274506658</v>
+        <v>0.114969516386118</v>
       </c>
       <c r="E74">
-        <v>7.935059710507757e-18</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.1395833682041618</v>
+        <v>0.178262576962984</v>
       </c>
       <c r="G74">
-        <v>0.06248329003711227</v>
+        <v>0.0797977038816768</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,22 +2105,22 @@
         <v>42062</v>
       </c>
       <c r="B75">
-        <v>0.6980742129772486</v>
+        <v>0.705181026717096</v>
       </c>
       <c r="C75">
-        <v>0.07662846931357575</v>
+        <v>0.0748247673427628</v>
       </c>
       <c r="D75">
-        <v>2.113111270448331e-18</v>
+        <v>8.60924287589271e-18</v>
       </c>
       <c r="E75">
-        <v>2.213388636155978e-17</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.1459546818665675</v>
+        <v>0.142519159189974</v>
       </c>
       <c r="G75">
-        <v>0.07934263584260817</v>
+        <v>0.0774750467501674</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>42094</v>
       </c>
       <c r="B76">
-        <v>0.6887190012746017</v>
+        <v>0.71503433462887</v>
       </c>
       <c r="C76">
-        <v>0.05263595394633069</v>
+        <v>0.0481861724292508</v>
       </c>
       <c r="D76">
-        <v>0.02362161735187887</v>
+        <v>0.0216246733976253</v>
       </c>
       <c r="E76">
-        <v>0.0784603762913086</v>
+        <v>0.0718274286675427</v>
       </c>
       <c r="F76">
-        <v>0.0997213011037049</v>
+        <v>0.0912909763086062</v>
       </c>
       <c r="G76">
-        <v>0.0568417500321752</v>
+        <v>0.0520364145681047</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>42124</v>
       </c>
       <c r="B77">
-        <v>0.6899814764273891</v>
+        <v>0.715744790352928</v>
       </c>
       <c r="C77">
-        <v>0.05099709728675034</v>
+        <v>0.0467591108296879</v>
       </c>
       <c r="D77">
-        <v>0.004420689247884028</v>
+        <v>0.00405331923026704</v>
       </c>
       <c r="E77">
-        <v>0.07943019588031382</v>
+        <v>0.0728293475958864</v>
       </c>
       <c r="F77">
-        <v>0.1072936008034076</v>
+        <v>0.0983772346092246</v>
       </c>
       <c r="G77">
-        <v>0.06787694035425526</v>
+        <v>0.0622361973820058</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,22 +2174,22 @@
         <v>42153</v>
       </c>
       <c r="B78">
-        <v>0.6683096265144611</v>
+        <v>0.704806801357926</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1.85669622038143e-18</v>
       </c>
       <c r="D78">
-        <v>0.0472431524048544</v>
+        <v>0.0420448058586892</v>
       </c>
       <c r="E78">
-        <v>2.585737870774094e-17</v>
+        <v>2.09454307197043e-17</v>
       </c>
       <c r="F78">
-        <v>0.1739405667908161</v>
+        <v>0.154801213422628</v>
       </c>
       <c r="G78">
-        <v>0.1105066542898684</v>
+        <v>0.0983471793607575</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,22 +2197,22 @@
         <v>42185</v>
       </c>
       <c r="B79">
-        <v>0.6613280749885107</v>
+        <v>0.698459877888815</v>
       </c>
       <c r="C79">
-        <v>6.43674621272438e-18</v>
+        <v>7.52588773635446e-18</v>
       </c>
       <c r="D79">
-        <v>0.0239357928338638</v>
+        <v>0.0213114855475044</v>
       </c>
       <c r="E79">
-        <v>0.1362283920139168</v>
+        <v>0.121292387864464</v>
       </c>
       <c r="F79">
-        <v>0.1081803562250906</v>
+        <v>0.096319520444885</v>
       </c>
       <c r="G79">
-        <v>0.07032738393861815</v>
+        <v>0.0626167282543313</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,22 +2220,22 @@
         <v>42216</v>
       </c>
       <c r="B80">
-        <v>0.6663425893746184</v>
+        <v>0.685134726636248</v>
       </c>
       <c r="C80">
-        <v>0.02823758094822185</v>
+        <v>0.0266471932653492</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>4.55873132212265e-18</v>
       </c>
       <c r="E80">
-        <v>0.1334708836370624</v>
+        <v>0.12595358563169</v>
       </c>
       <c r="F80">
-        <v>0.0970388846040685</v>
+        <v>0.0915734945633685</v>
       </c>
       <c r="G80">
-        <v>0.07491006143602887</v>
+        <v>0.0706909999033443</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,22 +2243,22 @@
         <v>42247</v>
       </c>
       <c r="B81">
-        <v>0.6701032320810331</v>
+        <v>0.693594456393969</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.01349512805234663</v>
+        <v>0.0125341694983323</v>
       </c>
       <c r="E81">
-        <v>0.06204770111141077</v>
+        <v>0.0576294207455903</v>
       </c>
       <c r="F81">
-        <v>0.09734214331559578</v>
+        <v>0.0904106231789872</v>
       </c>
       <c r="G81">
-        <v>0.04073448313792816</v>
+        <v>0.0378338699695991</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,22 +2266,22 @@
         <v>42277</v>
       </c>
       <c r="B82">
-        <v>0.6738759570991789</v>
+        <v>0.75342402113956</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.02448209145955923</v>
+        <v>0.0185104278061465</v>
       </c>
       <c r="E82">
-        <v>0.02079921729442888</v>
+        <v>0.0157258779825822</v>
       </c>
       <c r="F82">
-        <v>0.1249183834140733</v>
+        <v>0.0944483373513062</v>
       </c>
       <c r="G82">
-        <v>0.1047803431886652</v>
+        <v>0.0792223574170331</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,22 +2289,22 @@
         <v>42307</v>
       </c>
       <c r="B83">
-        <v>0.6750724962092389</v>
+        <v>3.37008139770919e-16</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.1624637518953805</v>
+        <v>0.426115119104389</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>9.45177381390634e-17</v>
       </c>
       <c r="F83">
-        <v>5.596331511620644e-18</v>
+        <v>7.73742642892585e-17</v>
       </c>
       <c r="G83">
-        <v>4.50927495053101e-18</v>
+        <v>0.147769761791222</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>42338</v>
       </c>
       <c r="B84">
-        <v>0.6500312657043037</v>
+        <v>0.637010679413536</v>
       </c>
       <c r="C84">
-        <v>0.02885219202251232</v>
+        <v>0.0299196105959585</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2.01170324972896e-20</v>
       </c>
       <c r="E84">
-        <v>0.03959859504426985</v>
+        <v>0.041034953290046</v>
       </c>
       <c r="F84">
-        <v>0.05839724549357015</v>
+        <v>0.0606089918920318</v>
       </c>
       <c r="G84">
-        <v>0.09627266917499172</v>
+        <v>0.0998622090303916</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,22 +2335,22 @@
         <v>42369</v>
       </c>
       <c r="B85">
-        <v>0.6506598558972472</v>
+        <v>0.598842845303328</v>
       </c>
       <c r="C85">
-        <v>0.03936026393709015</v>
+        <v>0.0451985030966517</v>
       </c>
       <c r="D85">
-        <v>8.444304243612686e-18</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2.9684269636527e-17</v>
       </c>
       <c r="F85">
-        <v>0.1693248174575869</v>
+        <v>0.19444047006453</v>
       </c>
       <c r="G85">
-        <v>0.1012947987709856</v>
+        <v>0.116319678438839</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,22 +2358,22 @@
         <v>42398</v>
       </c>
       <c r="B86">
-        <v>0.6276646320647276</v>
+        <v>0.686198478160846</v>
       </c>
       <c r="C86">
-        <v>0.04765703839886234</v>
+        <v>0.0407895858268871</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2.79859685772821e-18</v>
       </c>
       <c r="E86">
-        <v>0.05525088507165556</v>
+        <v>0.0468129146484881</v>
       </c>
       <c r="F86">
-        <v>0.08679239627417516</v>
+        <v>0.0723434384391832</v>
       </c>
       <c r="G86">
-        <v>0.1273841631189238</v>
+        <v>0.107042668276107</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>42429</v>
       </c>
       <c r="B87">
-        <v>0.6335306933068811</v>
+        <v>0.619848115287096</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.06581087795802883</v>
+        <v>0.0682680071483115</v>
       </c>
       <c r="F87">
-        <v>0.08803607626668387</v>
+        <v>0.0913230127207849</v>
       </c>
       <c r="G87">
-        <v>0.08538033451152038</v>
+        <v>0.0885681116841913</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>42460</v>
       </c>
       <c r="B88">
-        <v>0.6276699995429765</v>
+        <v>0.697699847380661</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.05277222880611395</v>
+        <v>0.0428465419929297</v>
       </c>
       <c r="F88">
-        <v>0.08282490374150328</v>
+        <v>0.0672467454989349</v>
       </c>
       <c r="G88">
-        <v>0.114554510802578</v>
+        <v>0.0930084762577331</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,22 +2427,22 @@
         <v>42489</v>
       </c>
       <c r="B89">
-        <v>0.6200550031820186</v>
+        <v>0.667185608087133</v>
       </c>
       <c r="C89">
-        <v>0.04426502002715003</v>
+        <v>0.038774127255692</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.01366480942926878</v>
+        <v>0.0119697453228926</v>
       </c>
       <c r="F89">
-        <v>0.1589621738503737</v>
+        <v>0.139243576211857</v>
       </c>
       <c r="G89">
-        <v>0.1051231640547702</v>
+        <v>0.0920830705438407</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,22 +2450,22 @@
         <v>42521</v>
       </c>
       <c r="B90">
-        <v>0.6227177105206267</v>
+        <v>0.721727942149784</v>
       </c>
       <c r="C90">
-        <v>0.02245966468708809</v>
+        <v>0.0165655728310245</v>
       </c>
       <c r="D90">
-        <v>8.86572831343917e-19</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.05979218383852716</v>
+        <v>0.0441009146956783</v>
       </c>
       <c r="F90">
-        <v>0.136132102888551</v>
+        <v>0.100406939799222</v>
       </c>
       <c r="G90">
-        <v>0.07664648953959169</v>
+        <v>0.056532142997589</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,22 +2473,22 @@
         <v>42551</v>
       </c>
       <c r="B91">
-        <v>0.6231859502652075</v>
+        <v>0.693786688964731</v>
       </c>
       <c r="C91">
-        <v>0.05425164533985571</v>
+        <v>0.0440869349866983</v>
       </c>
       <c r="D91">
-        <v>0.005067363726117785</v>
+        <v>0.00411793056594327</v>
       </c>
       <c r="E91">
-        <v>0.04495850915396082</v>
+        <v>0.0365349806410602</v>
       </c>
       <c r="F91">
-        <v>0.1088705556552289</v>
+        <v>0.0884723177678382</v>
       </c>
       <c r="G91">
-        <v>0.1136401029795507</v>
+        <v>0.092348235866725</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,22 +2496,22 @@
         <v>42580</v>
       </c>
       <c r="B92">
-        <v>0.611998287888922</v>
+        <v>0.665109560056678</v>
       </c>
       <c r="C92">
-        <v>0.1094587381328669</v>
+        <v>0.0944755753926051</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1.11909992991238e-17</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>6.42728600376563e-18</v>
       </c>
       <c r="F92">
-        <v>0.183447857984231</v>
+        <v>0.158336758918815</v>
       </c>
       <c r="G92">
-        <v>0.0950951159939801</v>
+        <v>0.0820781056319023</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,22 +2519,22 @@
         <v>42613</v>
       </c>
       <c r="B93">
-        <v>0.5994386383106849</v>
+        <v>0.616994398710606</v>
       </c>
       <c r="C93">
-        <v>0.1089548807159489</v>
+        <v>0.104179618448935</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>4.19874231953957e-17</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>4.28090451542323e-18</v>
       </c>
       <c r="F93">
-        <v>0.1879247562261324</v>
+        <v>0.179688409424621</v>
       </c>
       <c r="G93">
-        <v>0.1036817247472339</v>
+        <v>0.0991375734158382</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,22 +2542,22 @@
         <v>42643</v>
       </c>
       <c r="B94">
-        <v>0.5940079672362313</v>
+        <v>0.0122882503094864</v>
       </c>
       <c r="C94">
-        <v>0.1100468046676689</v>
+        <v>0.267725752127048</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.05238249861223474</v>
+        <v>0.127437992698089</v>
       </c>
       <c r="F94">
-        <v>0.1104804024774286</v>
+        <v>0.268780620993982</v>
       </c>
       <c r="G94">
-        <v>0.08069982839420171</v>
+        <v>0.196329391173306</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,22 +2565,22 @@
         <v>42674</v>
       </c>
       <c r="B95">
-        <v>0.5939916708957715</v>
+        <v>0.431081175564496</v>
       </c>
       <c r="C95">
-        <v>0.09325976090206922</v>
+        <v>0.130680159843605</v>
       </c>
       <c r="D95">
-        <v>1.091199684284543e-17</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.02574256860337425</v>
+        <v>0.0360717558346339</v>
       </c>
       <c r="F95">
-        <v>0.1752418158011839</v>
+        <v>0.245557440730603</v>
       </c>
       <c r="G95">
-        <v>0.111764183797601</v>
+        <v>0.156609468026662</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,22 +2588,22 @@
         <v>42704</v>
       </c>
       <c r="B96">
-        <v>0.5966872686060897</v>
+        <v>0.543498462325815</v>
       </c>
       <c r="C96">
-        <v>0.07816569651992128</v>
+        <v>0.0884741739732674</v>
       </c>
       <c r="D96">
-        <v>2.59884129300589e-17</v>
+        <v>1.27021060770255e-17</v>
       </c>
       <c r="E96">
-        <v>0.1084701261924993</v>
+        <v>0.122775146556391</v>
       </c>
       <c r="F96">
-        <v>0.1118809885234226</v>
+        <v>0.126635831556241</v>
       </c>
       <c r="G96">
-        <v>0.1047959201580672</v>
+        <v>0.118616385588286</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,22 +2611,22 @@
         <v>42734</v>
       </c>
       <c r="B97">
-        <v>0.6018767914792751</v>
+        <v>0.466242257334707</v>
       </c>
       <c r="C97">
-        <v>0.05763373381939617</v>
+        <v>0.0772686706725034</v>
       </c>
       <c r="D97">
-        <v>2.190104411613995e-18</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.1567254813043284</v>
+        <v>0.210119473580308</v>
       </c>
       <c r="F97">
-        <v>0.06374127479765611</v>
+        <v>0.0854569645511426</v>
       </c>
       <c r="G97">
-        <v>0.1200227185993442</v>
+        <v>0.160912633861339</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2637,19 +2637,19 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.06468076700176105</v>
+        <v>0.164434033552943</v>
       </c>
       <c r="D98">
-        <v>0.01081043949893744</v>
+        <v>0.0274827342205795</v>
       </c>
       <c r="E98">
-        <v>0.1619580808466062</v>
+        <v>0.41173631196167</v>
       </c>
       <c r="F98">
-        <v>1.506546711744303e-17</v>
+        <v>1.2360527159872e-17</v>
       </c>
       <c r="G98">
-        <v>0.1559045994250073</v>
+        <v>0.396346920264807</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2660,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>8.095326193469451e-18</v>
+        <v>7.45685368551459e-17</v>
       </c>
       <c r="D99">
-        <v>0.09020622026642525</v>
+        <v>0.238469288383641</v>
       </c>
       <c r="E99">
-        <v>0.1633888188285549</v>
+        <v>0.411654247985953</v>
       </c>
       <c r="F99">
-        <v>0.02132430525646803</v>
+        <v>0.0464620844826759</v>
       </c>
       <c r="G99">
-        <v>0.1235867575524387</v>
+        <v>0.30341437914773</v>
       </c>
     </row>
   </sheetData>
